--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_9.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_9.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-50774.87451752632</v>
+        <v>-49321.19497069902</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25694028.27108954</v>
+        <v>25841374.97493688</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10945934.67429403</v>
+        <v>11090349.1787348</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4349056.615736105</v>
+        <v>4239238.937196156</v>
       </c>
     </row>
     <row r="11">
@@ -662,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>181.9245108583958</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -722,10 +724,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>38.21796821522332</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -801,7 +803,7 @@
         <v>183.4695267241379</v>
       </c>
       <c r="X3" t="n">
-        <v>153.3187614035089</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y3" t="n">
         <v>125.2209214285714</v>
@@ -820,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,10 +831,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>53.55673229496871</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -883,7 +885,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>152.355512532834</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +898,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>373.3071698245765</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>169.6034614358336</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -950,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -987,7 +989,7 @@
         <v>82.55</v>
       </c>
       <c r="G6" t="n">
-        <v>84.53123883647797</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H6" t="n">
         <v>41.31829566194965</v>
@@ -1023,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>62.82088317610075</v>
+        <v>62.82088317610085</v>
       </c>
       <c r="T6" t="n">
         <v>128.8768572327044</v>
@@ -1054,25 +1056,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>29.34430923286766</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1111,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>230.1780484183454</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="D8" t="n">
-        <v>374.4268935289279</v>
       </c>
       <c r="E8" t="n">
         <v>424.2958575201043</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>374.4268935289279</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1260,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>62.82088317610085</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T9" t="n">
         <v>128.8768572327044</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>35.05600304798661</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1354,10 +1356,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>227.5807096980586</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,13 +1372,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>383.3590907834184</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>383.7717122625497</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1388,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>62.82088317610085</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T12" t="n">
         <v>128.8768572327044</v>
@@ -1528,7 +1530,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1579,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>159.582856075998</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1594,7 +1596,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.18027093765885</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1604,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>403.1572050940909</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1667,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>383.77171226255</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1703,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H15" t="n">
-        <v>41.31829566194965</v>
+        <v>41.31829566194966</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>62.82088317610085</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T15" t="n">
         <v>128.8768572327044</v>
@@ -1762,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>106.0626366504663</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1819,7 +1821,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1828,7 +1830,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>88.97263407854763</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1841,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>403.1572050940909</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1901,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>4.609587791059698</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -1999,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>71.05138915663611</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2068,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>7.554531779281105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>374.0142720497965</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E20" t="n">
-        <v>280.5347366322698</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -2099,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,16 +2137,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2242,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,16 +2298,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>222.8473937052518</v>
       </c>
       <c r="Y22" t="n">
-        <v>198.1733121300834</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2318,16 +2320,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D23" t="n">
-        <v>62.51533699730416</v>
+        <v>385.3238927773753</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2384,7 +2386,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2488,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>46.16917954999361</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>113.9217099076031</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2555,16 +2557,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="E26" t="n">
-        <v>424.2958575201043</v>
+        <v>383.7717122625497</v>
       </c>
       <c r="F26" t="n">
-        <v>373.7197913037078</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2618,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2716,13 +2718,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>25.45235703611018</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2776,10 +2778,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>228.3698698499521</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2804,10 +2806,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>321.1588953362556</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2846,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2858,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>376.6861762689736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2950,7 +2952,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2965,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>21.07970350946914</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3010,7 +3012,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>14.63225008663302</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3029,10 +3031,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>403.4516858401796</v>
       </c>
       <c r="D32" t="n">
-        <v>418.0084460627164</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3047,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3089,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -3193,13 +3195,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>39.04429649945163</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3241,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8499898697937</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3263,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>374.4268935289279</v>
+      </c>
+      <c r="D35" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>60.02259678662605</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3314,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3360,7 +3362,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H36" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.8019696682045</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,10 +3438,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>61.50604252213616</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3503,22 +3505,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>46.68188763447793</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>373.7197913037078</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3597,7 +3599,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H39" t="n">
-        <v>41.31829566194965</v>
+        <v>41.31829566194966</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3670,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>31.64472310719364</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
@@ -3709,22 +3711,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>43.556713721733</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3737,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>373.7197913037078</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3803,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.0716691005147</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3895,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>15.89031688759383</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3916,7 +3918,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>92.85483486179584</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>159.4921886272153</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>34.54397263689169</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4037,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4059,19 +4061,19 @@
         <v>105.3918965517241</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T45" t="n">
         <v>128.8768572327044</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>174.5731815300314</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W45" t="n">
-        <v>181.0765084323517</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X45" t="n">
         <v>153.3187614035088</v>
       </c>
       <c r="Y45" t="n">
-        <v>13.96682823501586</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="46">
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>81.95925292488829</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>7.747418622277563</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>181.0765084323517</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33.94366860160834</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="C2" t="n">
-        <v>33.94366860160834</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="D2" t="n">
-        <v>33.94366860160834</v>
+        <v>462.52534286434</v>
       </c>
       <c r="E2" t="n">
         <v>33.94366860160834</v>
@@ -4355,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1209.702196957095</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>847.0852468909217</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W2" t="n">
-        <v>442.2297923019549</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="X2" t="n">
-        <v>442.2297923019549</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="Y2" t="n">
-        <v>33.94366860160834</v>
+        <v>891.1070171270717</v>
       </c>
     </row>
     <row r="3">
@@ -4419,7 +4421,7 @@
         <v>33.94366860160834</v>
       </c>
       <c r="N3" t="n">
-        <v>453.9965675465116</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="O3" t="n">
         <v>739.9048540962709</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>419.5106457631153</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C4" t="n">
-        <v>419.5106457631153</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D4" t="n">
-        <v>253.632652964638</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E4" t="n">
-        <v>253.632652964638</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>253.632652964638</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>88.04137799046563</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
         <v>33.94366860160834</v>
@@ -4510,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1451.303983658873</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>1164.348475529303</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>892.3220711155946</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X4" t="n">
-        <v>646.930316449007</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="Y4" t="n">
-        <v>419.5106457631153</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1697.183430080417</v>
+        <v>205.6770856874316</v>
       </c>
       <c r="C5" t="n">
-        <v>1268.601755817686</v>
+        <v>205.6770856874316</v>
       </c>
       <c r="D5" t="n">
-        <v>840.020081554954</v>
+        <v>205.6770856874316</v>
       </c>
       <c r="E5" t="n">
-        <v>411.4384072922223</v>
+        <v>205.6770856874316</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>205.6770856874316</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>205.6770856874316</v>
       </c>
       <c r="H5" t="n">
         <v>34.36045797446834</v>
@@ -4574,16 +4576,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="M5" t="n">
-        <v>33.94366860160834</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="Q5" t="n">
         <v>1528.02936532736</v>
@@ -4598,19 +4600,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="W5" t="n">
-        <v>1697.183430080417</v>
+        <v>1033.105672808467</v>
       </c>
       <c r="X5" t="n">
-        <v>1697.183430080417</v>
+        <v>613.9632093877782</v>
       </c>
       <c r="Y5" t="n">
-        <v>1697.183430080417</v>
+        <v>205.6770856874316</v>
       </c>
     </row>
     <row r="6">
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>542.1413766661235</v>
+        <v>711.6628811189632</v>
       </c>
       <c r="C7" t="n">
-        <v>369.5796651493484</v>
+        <v>711.6628811189632</v>
       </c>
       <c r="D7" t="n">
-        <v>203.7016723508711</v>
+        <v>545.7848883204859</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>545.7848883204859</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>369.0778342822422</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>203.4865593080698</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>63.58438499844436</v>
       </c>
       <c r="I7" t="n">
         <v>33.94366860160834</v>
@@ -4729,46 +4731,46 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M7" t="n">
-        <v>872.2064493144727</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N7" t="n">
-        <v>1292.259348259376</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O7" t="n">
-        <v>1349.676536110076</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q7" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T7" t="n">
-        <v>1292.062614956869</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U7" t="n">
-        <v>1292.062614956869</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="V7" t="n">
-        <v>1059.559535746419</v>
+        <v>983.6892855326716</v>
       </c>
       <c r="W7" t="n">
-        <v>787.533131332711</v>
+        <v>711.6628811189632</v>
       </c>
       <c r="X7" t="n">
-        <v>542.1413766661235</v>
+        <v>711.6628811189632</v>
       </c>
       <c r="Y7" t="n">
-        <v>542.1413766661235</v>
+        <v>711.6628811189632</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1697.183430080417</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="C8" t="n">
-        <v>1268.601755817686</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="D8" t="n">
         <v>890.3927724551322</v>
@@ -4814,10 +4816,10 @@
         <v>33.94366860160834</v>
       </c>
       <c r="N8" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P8" t="n">
         <v>1107.976466382457</v>
@@ -4844,10 +4846,10 @@
         <v>1697.183430080417</v>
       </c>
       <c r="X8" t="n">
-        <v>1697.183430080417</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="Y8" t="n">
-        <v>1697.183430080417</v>
+        <v>1318.974446717864</v>
       </c>
     </row>
     <row r="9">
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>210.6507226398521</v>
+        <v>209.2559470001092</v>
       </c>
       <c r="C10" t="n">
-        <v>210.6507226398521</v>
+        <v>209.2559470001092</v>
       </c>
       <c r="D10" t="n">
-        <v>210.6507226398521</v>
+        <v>209.2559470001092</v>
       </c>
       <c r="E10" t="n">
-        <v>210.6507226398521</v>
+        <v>209.2559470001092</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>209.2559470001092</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>209.2559470001092</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>69.35377269048371</v>
       </c>
       <c r="I10" t="n">
         <v>33.94366860160834</v>
@@ -4966,19 +4968,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M10" t="n">
-        <v>872.2064493144727</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q10" t="n">
         <v>1697.183430080417</v>
@@ -4987,25 +4989,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U10" t="n">
-        <v>1418.750429333523</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V10" t="n">
-        <v>1131.794921203953</v>
+        <v>726.6741060804052</v>
       </c>
       <c r="W10" t="n">
-        <v>859.7685167902448</v>
+        <v>454.6477016666967</v>
       </c>
       <c r="X10" t="n">
-        <v>629.8890120447311</v>
+        <v>209.2559470001092</v>
       </c>
       <c r="Y10" t="n">
-        <v>402.4693413588393</v>
+        <v>209.2559470001092</v>
       </c>
     </row>
     <row r="11">
@@ -5018,22 +5020,22 @@
         <v>1278.040966659728</v>
       </c>
       <c r="C11" t="n">
-        <v>890.8095618279922</v>
+        <v>1278.040966659728</v>
       </c>
       <c r="D11" t="n">
-        <v>462.2278875652606</v>
+        <v>849.4592923969963</v>
       </c>
       <c r="E11" t="n">
-        <v>462.2278875652606</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F11" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G11" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H11" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I11" t="n">
         <v>33.94366860160834</v>
@@ -5051,7 +5053,7 @@
         <v>33.94366860160834</v>
       </c>
       <c r="N11" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O11" t="n">
         <v>687.9235674375537</v>
@@ -5130,7 +5132,7 @@
         <v>33.94366860160834</v>
       </c>
       <c r="N12" t="n">
-        <v>453.9965675465116</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="O12" t="n">
         <v>739.9048540962709</v>
@@ -5173,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>383.2124341566272</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C13" t="n">
-        <v>210.6507226398521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D13" t="n">
-        <v>210.6507226398521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E13" t="n">
-        <v>210.6507226398521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F13" t="n">
         <v>33.94366860160834</v>
@@ -5203,19 +5205,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L13" t="n">
-        <v>452.1535503695694</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M13" t="n">
-        <v>509.954387939391</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N13" t="n">
-        <v>930.0072868842942</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O13" t="n">
-        <v>1349.676536110076</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P13" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q13" t="n">
         <v>1697.183430080417</v>
@@ -5227,22 +5229,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T13" t="n">
-        <v>1451.303983658873</v>
+        <v>1535.988625963248</v>
       </c>
       <c r="U13" t="n">
-        <v>1451.303983658873</v>
+        <v>1257.555625216353</v>
       </c>
       <c r="V13" t="n">
-        <v>1164.348475529303</v>
+        <v>970.6001170867833</v>
       </c>
       <c r="W13" t="n">
-        <v>892.3220711155946</v>
+        <v>698.5737126730747</v>
       </c>
       <c r="X13" t="n">
-        <v>646.930316449007</v>
+        <v>453.1819580064872</v>
       </c>
       <c r="Y13" t="n">
-        <v>575.0310528756143</v>
+        <v>225.7622873205955</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>462.52534286434</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="C14" t="n">
-        <v>33.94366860160834</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="D14" t="n">
-        <v>33.94366860160834</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="E14" t="n">
-        <v>33.94366860160834</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F14" t="n">
         <v>33.94366860160834</v>
@@ -5288,10 +5290,10 @@
         <v>33.94366860160834</v>
       </c>
       <c r="N14" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O14" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P14" t="n">
         <v>1107.976466382457</v>
@@ -5315,13 +5317,13 @@
         <v>1697.183430080417</v>
       </c>
       <c r="W14" t="n">
-        <v>1697.183430080417</v>
+        <v>1309.535235875821</v>
       </c>
       <c r="X14" t="n">
-        <v>1278.040966659728</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="Y14" t="n">
-        <v>869.7548429593813</v>
+        <v>890.3927724551322</v>
       </c>
     </row>
     <row r="15">
@@ -5346,7 +5348,7 @@
         <v>161.064410519212</v>
       </c>
       <c r="G15" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539589</v>
       </c>
       <c r="H15" t="n">
         <v>33.94366860160834</v>
@@ -5410,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>383.2124341566272</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C16" t="n">
-        <v>210.6507226398521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D16" t="n">
-        <v>210.6507226398521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E16" t="n">
-        <v>210.6507226398521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F16" t="n">
         <v>33.94366860160834</v>
@@ -5434,19 +5436,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J16" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K16" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L16" t="n">
-        <v>761.43086230084</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M16" t="n">
-        <v>1181.483761245743</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N16" t="n">
-        <v>1181.483761245743</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O16" t="n">
         <v>1181.483761245743</v>
@@ -5467,19 +5469,19 @@
         <v>1451.303983658873</v>
       </c>
       <c r="U16" t="n">
-        <v>1451.303983658873</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V16" t="n">
-        <v>1164.348475529303</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W16" t="n">
-        <v>892.3220711155946</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X16" t="n">
-        <v>802.450723561506</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="Y16" t="n">
-        <v>575.0310528756143</v>
+        <v>141.0776450162207</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>462.52534286434</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C17" t="n">
         <v>33.94366860160834</v>
@@ -5525,7 +5527,7 @@
         <v>33.94366860160834</v>
       </c>
       <c r="N17" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O17" t="n">
         <v>687.9235674375537</v>
@@ -5549,16 +5551,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V17" t="n">
-        <v>1697.183430080417</v>
+        <v>1692.527280796519</v>
       </c>
       <c r="W17" t="n">
-        <v>1697.183430080417</v>
+        <v>1287.671826207552</v>
       </c>
       <c r="X17" t="n">
-        <v>1278.040966659728</v>
+        <v>868.5293627868627</v>
       </c>
       <c r="Y17" t="n">
-        <v>869.7548429593813</v>
+        <v>460.2432390865162</v>
       </c>
     </row>
     <row r="18">
@@ -5571,7 +5573,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C18" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D18" t="n">
         <v>338.5686635760967</v>
@@ -5580,10 +5582,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F18" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G18" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H18" t="n">
         <v>33.94366860160834</v>
@@ -5604,7 +5606,7 @@
         <v>33.94366860160834</v>
       </c>
       <c r="N18" t="n">
-        <v>319.8519551513677</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O18" t="n">
         <v>739.9048540962709</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>692.8726122155155</v>
+        <v>542.1199904125018</v>
       </c>
       <c r="C19" t="n">
-        <v>520.3109006987404</v>
+        <v>542.1199904125018</v>
       </c>
       <c r="D19" t="n">
-        <v>520.3109006987404</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="E19" t="n">
-        <v>350.5528969494776</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F19" t="n">
-        <v>173.8458429112338</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G19" t="n">
-        <v>173.8458429112338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H19" t="n">
         <v>33.94366860160834</v>
@@ -5680,13 +5682,13 @@
         <v>452.1535503695694</v>
       </c>
       <c r="M19" t="n">
-        <v>872.2064493144727</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="N19" t="n">
-        <v>1109.321405990304</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O19" t="n">
-        <v>1528.990655216085</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P19" t="n">
         <v>1528.990655216085</v>
@@ -5698,25 +5700,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S19" t="n">
-        <v>1697.183430080417</v>
+        <v>1625.414350124219</v>
       </c>
       <c r="T19" t="n">
-        <v>1451.303983658873</v>
+        <v>1379.534903702674</v>
       </c>
       <c r="U19" t="n">
-        <v>1451.303983658873</v>
+        <v>1101.10190295578</v>
       </c>
       <c r="V19" t="n">
-        <v>1164.348475529303</v>
+        <v>814.1463948262103</v>
       </c>
       <c r="W19" t="n">
-        <v>892.3220711155946</v>
+        <v>542.1199904125018</v>
       </c>
       <c r="X19" t="n">
-        <v>892.3220711155946</v>
+        <v>542.1199904125018</v>
       </c>
       <c r="Y19" t="n">
-        <v>884.6912309345025</v>
+        <v>542.1199904125018</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1202.779539776674</v>
+        <v>1319.391236090724</v>
       </c>
       <c r="C20" t="n">
-        <v>764.6370669600974</v>
+        <v>890.8095618279922</v>
       </c>
       <c r="D20" t="n">
-        <v>764.6370669600974</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="E20" t="n">
-        <v>481.2686461194208</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="F20" t="n">
-        <v>53.40121652862856</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G20" t="n">
-        <v>53.40121652862856</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H20" t="n">
-        <v>53.40121652862856</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I20" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J20" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K20" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L20" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M20" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N20" t="n">
-        <v>632.7278666362198</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O20" t="n">
-        <v>1293.567921177998</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P20" t="n">
-        <v>1954.407975719776</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q20" t="n">
-        <v>2500.906761678371</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R20" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S20" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T20" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U20" t="n">
-        <v>2410.838523748444</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V20" t="n">
-        <v>2048.221573682271</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W20" t="n">
-        <v>2048.221573682271</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X20" t="n">
-        <v>1629.079110261582</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y20" t="n">
-        <v>1629.079110261582</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>559.5729615199214</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C21" t="n">
-        <v>453.1165003565636</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D21" t="n">
-        <v>358.0262115031169</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E21" t="n">
-        <v>263.9057968300706</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F21" t="n">
-        <v>180.5219584462322</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G21" t="n">
-        <v>95.13686871241609</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H21" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I21" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J21" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K21" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L21" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M21" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N21" t="n">
-        <v>53.40121652862856</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="O21" t="n">
-        <v>397.8892067392439</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P21" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q21" t="n">
-        <v>1599.468199913098</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R21" t="n">
-        <v>1716.640978007438</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S21" t="n">
-        <v>1653.185540455821</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T21" t="n">
-        <v>1523.006896786422</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U21" t="n">
-        <v>1346.67034978639</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V21" t="n">
-        <v>1147.55283184839</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W21" t="n">
-        <v>962.2300775815838</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X21" t="n">
-        <v>807.3626418204638</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y21" t="n">
-        <v>680.8768625996845</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>790.1396618744722</v>
+        <v>369.2929473250434</v>
       </c>
       <c r="C22" t="n">
-        <v>790.1396618744722</v>
+        <v>369.2929473250434</v>
       </c>
       <c r="D22" t="n">
-        <v>624.2616690759949</v>
+        <v>369.2929473250434</v>
       </c>
       <c r="E22" t="n">
-        <v>624.2616690759949</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="F22" t="n">
-        <v>447.554615037751</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G22" t="n">
-        <v>281.9633400635787</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H22" t="n">
-        <v>142.0611657539532</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I22" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J22" t="n">
-        <v>139.9809016933184</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K22" t="n">
-        <v>414.739356264454</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L22" t="n">
-        <v>832.9492380324151</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M22" t="n">
-        <v>1292.433105213328</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N22" t="n">
-        <v>1734.691908370973</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O22" t="n">
-        <v>2154.361157596754</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P22" t="n">
-        <v>2501.868051567096</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q22" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R22" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S22" t="n">
-        <v>2510.819457729424</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.94001130788</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U22" t="n">
-        <v>1986.507010560985</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V22" t="n">
-        <v>1699.551502431415</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="W22" t="n">
-        <v>1427.525098017707</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="X22" t="n">
-        <v>1182.133343351119</v>
+        <v>788.5312367299223</v>
       </c>
       <c r="Y22" t="n">
-        <v>981.9582805934592</v>
+        <v>561.1115660440305</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1416.332668825484</v>
+        <v>851.7413961748201</v>
       </c>
       <c r="C23" t="n">
-        <v>978.1901960089076</v>
+        <v>423.1597219120885</v>
       </c>
       <c r="D23" t="n">
-        <v>915.0433909611256</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E23" t="n">
-        <v>481.2686461194208</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F23" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G23" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H23" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I23" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J23" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K23" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L23" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M23" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N23" t="n">
-        <v>632.7278666362198</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O23" t="n">
-        <v>1293.567921177998</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P23" t="n">
-        <v>1954.407975719776</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q23" t="n">
-        <v>2500.906761678371</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R23" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S23" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T23" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U23" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V23" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W23" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X23" t="n">
-        <v>2250.918363010739</v>
+        <v>1278.040966659728</v>
       </c>
       <c r="Y23" t="n">
-        <v>1842.632239310392</v>
+        <v>1278.040966659728</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>559.5729615199214</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C24" t="n">
-        <v>453.1165003565636</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D24" t="n">
-        <v>358.0262115031169</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E24" t="n">
-        <v>263.9057968300706</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F24" t="n">
-        <v>180.5219584462322</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G24" t="n">
-        <v>95.13686871241609</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H24" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I24" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J24" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K24" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L24" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M24" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N24" t="n">
-        <v>714.2412710704069</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="O24" t="n">
-        <v>1175.902039375362</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P24" t="n">
-        <v>1175.902039375362</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q24" t="n">
-        <v>1716.640978007438</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R24" t="n">
-        <v>1716.640978007438</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S24" t="n">
-        <v>1653.185540455821</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T24" t="n">
-        <v>1523.006896786422</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U24" t="n">
-        <v>1346.67034978639</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V24" t="n">
-        <v>1147.55283184839</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W24" t="n">
-        <v>962.2300775815838</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X24" t="n">
-        <v>807.3626418204638</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y24" t="n">
-        <v>680.8768625996845</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1013.503637065321</v>
+        <v>884.4397056785397</v>
       </c>
       <c r="C25" t="n">
-        <v>840.941925548546</v>
+        <v>711.8779941617646</v>
       </c>
       <c r="D25" t="n">
-        <v>675.0639327500687</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="E25" t="n">
-        <v>505.305929000806</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F25" t="n">
-        <v>328.5988749625621</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G25" t="n">
-        <v>281.9633400635787</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H25" t="n">
-        <v>142.0611657539532</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I25" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J25" t="n">
-        <v>139.9809016933184</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K25" t="n">
-        <v>414.739356264454</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L25" t="n">
-        <v>832.9492380324151</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M25" t="n">
-        <v>1292.433105213328</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N25" t="n">
-        <v>1734.691908370973</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O25" t="n">
-        <v>2154.361157596754</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P25" t="n">
-        <v>2501.868051567096</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q25" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R25" t="n">
-        <v>2648.6430051368</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S25" t="n">
-        <v>2489.401636434797</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T25" t="n">
-        <v>2243.522190013252</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U25" t="n">
-        <v>1965.089189266357</v>
+        <v>1418.750429333523</v>
       </c>
       <c r="V25" t="n">
-        <v>1678.133681136788</v>
+        <v>1418.750429333523</v>
       </c>
       <c r="W25" t="n">
-        <v>1678.133681136788</v>
+        <v>1303.677995083419</v>
       </c>
       <c r="X25" t="n">
-        <v>1432.7419264702</v>
+        <v>1303.677995083419</v>
       </c>
       <c r="Y25" t="n">
-        <v>1205.322255784308</v>
+        <v>1076.258324397527</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1697.183430080417</v>
+        <v>1278.040966659728</v>
       </c>
       <c r="C26" t="n">
-        <v>1268.601755817686</v>
+        <v>1278.040966659728</v>
       </c>
       <c r="D26" t="n">
-        <v>840.020081554954</v>
+        <v>849.4592923969963</v>
       </c>
       <c r="E26" t="n">
-        <v>411.4384072922223</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F26" t="n">
         <v>33.94366860160834</v>
@@ -6233,19 +6235,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="M26" t="n">
-        <v>453.9965675465116</v>
+        <v>437.0247332457074</v>
       </c>
       <c r="N26" t="n">
-        <v>874.0494664914149</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="O26" t="n">
-        <v>1107.976466382457</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="P26" t="n">
-        <v>1107.976466382457</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q26" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R26" t="n">
         <v>1697.183430080417</v>
@@ -6266,10 +6268,10 @@
         <v>1697.183430080417</v>
       </c>
       <c r="X26" t="n">
-        <v>1697.183430080417</v>
+        <v>1278.040966659728</v>
       </c>
       <c r="Y26" t="n">
-        <v>1697.183430080417</v>
+        <v>1278.040966659728</v>
       </c>
     </row>
     <row r="27">
@@ -6321,10 +6323,10 @@
         <v>874.0494664914149</v>
       </c>
       <c r="P27" t="n">
-        <v>1294.102365436318</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q27" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R27" t="n">
         <v>1697.183430080417</v>
@@ -6358,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>372.3833729168607</v>
+        <v>383.2124341566272</v>
       </c>
       <c r="C28" t="n">
-        <v>199.8216614000857</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="D28" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="E28" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F28" t="n">
         <v>33.94366860160834</v>
@@ -6385,49 +6387,49 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K28" t="n">
-        <v>33.94366860160834</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L28" t="n">
-        <v>452.1535503695694</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M28" t="n">
-        <v>872.2064493144727</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="N28" t="n">
-        <v>1292.259348259376</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O28" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P28" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q28" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R28" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S28" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T28" t="n">
-        <v>1429.886162364244</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U28" t="n">
-        <v>1404.176710812618</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V28" t="n">
-        <v>1117.221202683048</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W28" t="n">
-        <v>845.19479826934</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X28" t="n">
-        <v>599.8030436027525</v>
+        <v>383.2124341566272</v>
       </c>
       <c r="Y28" t="n">
-        <v>372.3833729168607</v>
+        <v>383.2124341566272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>890.3927724551322</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="C29" t="n">
-        <v>461.8110981924006</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="D29" t="n">
-        <v>461.8110981924006</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="E29" t="n">
-        <v>461.8110981924006</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="F29" t="n">
-        <v>33.94366860160834</v>
+        <v>647.4767477404685</v>
       </c>
       <c r="G29" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H29" t="n">
         <v>33.94366860160834</v>
@@ -6470,19 +6472,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="M29" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N29" t="n">
-        <v>267.8706684926505</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O29" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P29" t="n">
-        <v>1107.976466382457</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="Q29" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R29" t="n">
         <v>1697.183430080417</v>
@@ -6494,19 +6496,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U29" t="n">
-        <v>1697.183430080417</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V29" t="n">
-        <v>1697.183430080417</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="W29" t="n">
-        <v>1697.183430080417</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="X29" t="n">
-        <v>1697.183430080417</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="Y29" t="n">
-        <v>1316.69234294004</v>
+        <v>1075.344177331261</v>
       </c>
     </row>
     <row r="30">
@@ -6531,37 +6533,37 @@
         <v>161.064410519212</v>
       </c>
       <c r="G30" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H30" t="n">
-        <v>33.94366860160836</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I30" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J30" t="n">
-        <v>358.5019935678207</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K30" t="n">
-        <v>358.5019935678207</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L30" t="n">
-        <v>358.5019935678207</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M30" t="n">
-        <v>778.554892512724</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N30" t="n">
-        <v>1198.607791457627</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O30" t="n">
-        <v>1198.607791457627</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P30" t="n">
-        <v>1618.66069040253</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q30" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R30" t="n">
         <v>1697.183430080417</v>
@@ -6595,46 +6597,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>206.5053801183834</v>
+        <v>195.1384727187784</v>
       </c>
       <c r="C31" t="n">
-        <v>33.94366860160834</v>
+        <v>195.1384727187784</v>
       </c>
       <c r="D31" t="n">
-        <v>33.94366860160834</v>
+        <v>195.1384727187784</v>
       </c>
       <c r="E31" t="n">
-        <v>33.94366860160834</v>
+        <v>195.1384727187784</v>
       </c>
       <c r="F31" t="n">
-        <v>33.94366860160834</v>
+        <v>195.1384727187784</v>
       </c>
       <c r="G31" t="n">
-        <v>33.94366860160834</v>
+        <v>195.1384727187784</v>
       </c>
       <c r="H31" t="n">
-        <v>33.94366860160834</v>
+        <v>55.23629840915294</v>
       </c>
       <c r="I31" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J31" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K31" t="n">
-        <v>341.3779633559367</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L31" t="n">
-        <v>341.3779633559367</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="M31" t="n">
-        <v>761.43086230084</v>
+        <v>728.7550221176472</v>
       </c>
       <c r="N31" t="n">
-        <v>1181.483761245743</v>
+        <v>1109.321405990304</v>
       </c>
       <c r="O31" t="n">
-        <v>1181.483761245743</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="P31" t="n">
         <v>1528.990655216085</v>
@@ -6649,22 +6651,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T31" t="n">
-        <v>1451.303983658873</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U31" t="n">
-        <v>1172.870982911978</v>
+        <v>1418.750429333523</v>
       </c>
       <c r="V31" t="n">
-        <v>885.9154747824084</v>
+        <v>1131.794921203953</v>
       </c>
       <c r="W31" t="n">
-        <v>871.1354241898498</v>
+        <v>859.7685167902448</v>
       </c>
       <c r="X31" t="n">
-        <v>625.7436695232623</v>
+        <v>614.3767621236573</v>
       </c>
       <c r="Y31" t="n">
-        <v>398.3239988373705</v>
+        <v>386.9570914377655</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>884.041851791104</v>
+        <v>869.7548429593813</v>
       </c>
       <c r="C32" t="n">
-        <v>884.041851791104</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="D32" t="n">
-        <v>461.8110981924006</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="E32" t="n">
-        <v>461.8110981924006</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="F32" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G32" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H32" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I32" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J32" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K32" t="n">
         <v>453.9965675465116</v>
       </c>
       <c r="L32" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M32" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N32" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O32" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P32" t="n">
         <v>1107.976466382457</v>
@@ -6737,13 +6739,13 @@
         <v>1697.183430080417</v>
       </c>
       <c r="W32" t="n">
-        <v>1292.327975491451</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X32" t="n">
-        <v>1292.327975491451</v>
+        <v>1278.040966659728</v>
       </c>
       <c r="Y32" t="n">
-        <v>884.041851791104</v>
+        <v>869.7548429593813</v>
       </c>
     </row>
     <row r="33">
@@ -6789,13 +6791,13 @@
         <v>33.94366860160834</v>
       </c>
       <c r="N33" t="n">
-        <v>453.9965675465116</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="O33" t="n">
-        <v>874.0494664914149</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P33" t="n">
-        <v>1294.102365436318</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q33" t="n">
         <v>1580.010651986078</v>
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>542.1413766661235</v>
+        <v>754.1203852620563</v>
       </c>
       <c r="C34" t="n">
-        <v>369.5796651493484</v>
+        <v>581.5586737452812</v>
       </c>
       <c r="D34" t="n">
-        <v>203.7016723508711</v>
+        <v>415.6806809468039</v>
       </c>
       <c r="E34" t="n">
-        <v>33.94366860160834</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F34" t="n">
-        <v>33.94366860160834</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G34" t="n">
         <v>33.94366860160834</v>
@@ -6862,46 +6864,46 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L34" t="n">
-        <v>437.4083829648294</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M34" t="n">
-        <v>857.4612819097326</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N34" t="n">
-        <v>1277.514180854636</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O34" t="n">
-        <v>1697.183430080417</v>
+        <v>1293.718715717196</v>
       </c>
       <c r="P34" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q34" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R34" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S34" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T34" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U34" t="n">
-        <v>1675.765608785789</v>
+        <v>1418.750429333523</v>
       </c>
       <c r="V34" t="n">
-        <v>1388.81010065622</v>
+        <v>1418.750429333523</v>
       </c>
       <c r="W34" t="n">
-        <v>1116.783696242511</v>
+        <v>1418.750429333523</v>
       </c>
       <c r="X34" t="n">
-        <v>961.3796660710025</v>
+        <v>1173.358674666935</v>
       </c>
       <c r="Y34" t="n">
-        <v>733.9599953851107</v>
+        <v>945.9390039810435</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>523.1542285073966</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="C35" t="n">
-        <v>94.57255424466496</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="D35" t="n">
-        <v>94.57255424466496</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="E35" t="n">
-        <v>94.57255424466496</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F35" t="n">
-        <v>94.57255424466496</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G35" t="n">
         <v>33.94366860160834</v>
@@ -6944,43 +6946,43 @@
         <v>33.94366860160834</v>
       </c>
       <c r="M35" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="N35" t="n">
-        <v>874.0494664914149</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O35" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P35" t="n">
-        <v>1277.130531135514</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q35" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R35" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S35" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T35" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U35" t="n">
-        <v>1354.309253581271</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V35" t="n">
-        <v>1354.309253581271</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W35" t="n">
-        <v>949.4537989923044</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X35" t="n">
-        <v>949.4537989923044</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y35" t="n">
-        <v>949.4537989923044</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="36">
@@ -7005,7 +7007,7 @@
         <v>161.064410519212</v>
       </c>
       <c r="G36" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H36" t="n">
         <v>33.94366860160834</v>
@@ -7032,7 +7034,7 @@
         <v>874.0494664914149</v>
       </c>
       <c r="P36" t="n">
-        <v>1159.957753041174</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="Q36" t="n">
         <v>1580.010651986078</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>549.0904269551045</v>
+        <v>610.9310248097249</v>
       </c>
       <c r="C37" t="n">
-        <v>376.5287154383295</v>
+        <v>438.3693132929499</v>
       </c>
       <c r="D37" t="n">
-        <v>210.6507226398521</v>
+        <v>438.3693132929499</v>
       </c>
       <c r="E37" t="n">
-        <v>210.6507226398521</v>
+        <v>438.3693132929499</v>
       </c>
       <c r="F37" t="n">
-        <v>33.94366860160834</v>
+        <v>261.6622592547061</v>
       </c>
       <c r="G37" t="n">
-        <v>33.94366860160834</v>
+        <v>96.07098428053376</v>
       </c>
       <c r="H37" t="n">
         <v>33.94366860160834</v>
@@ -7093,52 +7095,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J37" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K37" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L37" t="n">
-        <v>452.1535503695694</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M37" t="n">
-        <v>872.2064493144727</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N37" t="n">
-        <v>1292.259348259376</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O37" t="n">
-        <v>1292.259348259376</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P37" t="n">
-        <v>1639.766242229718</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q37" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R37" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S37" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T37" t="n">
-        <v>1451.303983658873</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U37" t="n">
-        <v>1451.303983658873</v>
+        <v>1397.332608038895</v>
       </c>
       <c r="V37" t="n">
-        <v>1451.303983658873</v>
+        <v>1110.377099909325</v>
       </c>
       <c r="W37" t="n">
-        <v>1179.277579245164</v>
+        <v>838.3506954956167</v>
       </c>
       <c r="X37" t="n">
-        <v>933.8858245785766</v>
+        <v>838.3506954956167</v>
       </c>
       <c r="Y37" t="n">
-        <v>706.4661538926848</v>
+        <v>610.9310248097249</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1319.688691389803</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="C38" t="n">
-        <v>891.1070171270717</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="D38" t="n">
-        <v>462.52534286434</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="E38" t="n">
-        <v>33.94366860160834</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="F38" t="n">
-        <v>33.94366860160834</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="G38" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H38" t="n">
         <v>33.94366860160834</v>
@@ -7175,22 +7177,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K38" t="n">
-        <v>33.94366860160834</v>
+        <v>437.0247332457074</v>
       </c>
       <c r="L38" t="n">
-        <v>453.9965675465116</v>
+        <v>437.0247332457074</v>
       </c>
       <c r="M38" t="n">
-        <v>874.0494664914149</v>
+        <v>437.0247332457074</v>
       </c>
       <c r="N38" t="n">
-        <v>1294.102365436318</v>
+        <v>437.0247332457074</v>
       </c>
       <c r="O38" t="n">
-        <v>1294.102365436318</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="P38" t="n">
-        <v>1697.183430080417</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="Q38" t="n">
         <v>1697.183430080417</v>
@@ -7199,25 +7201,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S38" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T38" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U38" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V38" t="n">
-        <v>1697.183430080417</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W38" t="n">
-        <v>1697.183430080417</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="X38" t="n">
-        <v>1319.688691389803</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="Y38" t="n">
-        <v>1319.688691389803</v>
+        <v>771.6250763881362</v>
       </c>
     </row>
     <row r="39">
@@ -7230,7 +7232,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C39" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D39" t="n">
         <v>338.5686635760967</v>
@@ -7239,10 +7241,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F39" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G39" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539589</v>
       </c>
       <c r="H39" t="n">
         <v>33.94366860160834</v>
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>205.8102096861769</v>
+        <v>688.7058834404251</v>
       </c>
       <c r="C40" t="n">
-        <v>205.8102096861769</v>
+        <v>516.14417192365</v>
       </c>
       <c r="D40" t="n">
-        <v>205.8102096861769</v>
+        <v>516.14417192365</v>
       </c>
       <c r="E40" t="n">
-        <v>205.8102096861769</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F40" t="n">
-        <v>173.8458429112338</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G40" t="n">
         <v>173.8458429112338</v>
@@ -7342,7 +7344,7 @@
         <v>453.9965675465116</v>
       </c>
       <c r="N40" t="n">
-        <v>874.0494664914149</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O40" t="n">
         <v>1181.483761245743</v>
@@ -7357,25 +7359,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S40" t="n">
-        <v>1516.524240083786</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T40" t="n">
-        <v>1270.644793662241</v>
+        <v>1631.768928258786</v>
       </c>
       <c r="U40" t="n">
-        <v>992.2117929153466</v>
+        <v>1353.335927511891</v>
       </c>
       <c r="V40" t="n">
-        <v>705.2562847857771</v>
+        <v>1353.335927511891</v>
       </c>
       <c r="W40" t="n">
-        <v>433.2298803720686</v>
+        <v>1353.335927511891</v>
       </c>
       <c r="X40" t="n">
-        <v>433.2298803720686</v>
+        <v>1107.944172845304</v>
       </c>
       <c r="Y40" t="n">
-        <v>205.8102096861769</v>
+        <v>880.5245021594121</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>462.52534286434</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="C41" t="n">
-        <v>33.94366860160834</v>
+        <v>1268.601755817686</v>
       </c>
       <c r="D41" t="n">
-        <v>33.94366860160834</v>
+        <v>840.020081554954</v>
       </c>
       <c r="E41" t="n">
-        <v>33.94366860160834</v>
+        <v>411.4384072922223</v>
       </c>
       <c r="F41" t="n">
         <v>33.94366860160834</v>
@@ -7418,19 +7420,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="M41" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N41" t="n">
-        <v>267.8706684926505</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O41" t="n">
-        <v>687.9235674375537</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="P41" t="n">
-        <v>1107.976466382457</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q41" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R41" t="n">
         <v>1697.183430080417</v>
@@ -7451,10 +7453,10 @@
         <v>1697.183430080417</v>
       </c>
       <c r="X41" t="n">
-        <v>1297.111037049594</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y41" t="n">
-        <v>888.8249133492478</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="42">
@@ -7467,7 +7469,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C42" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D42" t="n">
         <v>338.5686635760967</v>
@@ -7476,10 +7478,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F42" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G42" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H42" t="n">
         <v>33.94366860160834</v>
@@ -7497,19 +7499,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="M42" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N42" t="n">
-        <v>453.9965675465116</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="O42" t="n">
-        <v>857.0776321906106</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P42" t="n">
-        <v>1277.130531135514</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q42" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R42" t="n">
         <v>1697.183430080417</v>
@@ -7543,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>936.2947751752459</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="C43" t="n">
-        <v>763.7330636584709</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="D43" t="n">
-        <v>597.8550708599936</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="E43" t="n">
-        <v>428.0970671107308</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="F43" t="n">
-        <v>428.0970671107308</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G43" t="n">
-        <v>262.5057921365585</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H43" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I43" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J43" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K43" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L43" t="n">
-        <v>813.4916901053949</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M43" t="n">
-        <v>813.4916901053949</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N43" t="n">
-        <v>1233.544589050298</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O43" t="n">
-        <v>1233.544589050298</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P43" t="n">
         <v>1528.990655216085</v>
@@ -7591,28 +7593,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R43" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S43" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T43" t="n">
-        <v>1697.183430080417</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U43" t="n">
-        <v>1697.183430080417</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V43" t="n">
-        <v>1697.183430080417</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W43" t="n">
-        <v>1425.157025666709</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X43" t="n">
-        <v>1179.765271000121</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="Y43" t="n">
-        <v>952.3456003142296</v>
+        <v>339.4371178854062</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>175.5893415101591</v>
+        <v>1187.231985779346</v>
       </c>
       <c r="C44" t="n">
-        <v>14.48612067458814</v>
+        <v>1187.231985779346</v>
       </c>
       <c r="D44" t="n">
-        <v>14.48612067458814</v>
+        <v>1152.33908412592</v>
       </c>
       <c r="E44" t="n">
-        <v>14.48612067458814</v>
+        <v>1152.33908412592</v>
       </c>
       <c r="F44" t="n">
-        <v>14.48612067458814</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="G44" t="n">
-        <v>14.48612067458814</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H44" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I44" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J44" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K44" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L44" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M44" t="n">
-        <v>17.35473893226555</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="N44" t="n">
-        <v>17.35473893226555</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O44" t="n">
-        <v>196.6204822802937</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P44" t="n">
-        <v>375.8862256283219</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="Q44" t="n">
-        <v>555.1519689763501</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R44" t="n">
-        <v>724.3060337294069</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S44" t="n">
-        <v>724.3060337294069</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T44" t="n">
-        <v>541.4004696563243</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U44" t="n">
-        <v>541.4004696563243</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V44" t="n">
-        <v>541.4004696563243</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W44" t="n">
-        <v>358.4949055832417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="X44" t="n">
-        <v>175.5893415101591</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="Y44" t="n">
-        <v>175.5893415101591</v>
+        <v>1613.531556264254</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>120.9425818379459</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C45" t="n">
-        <v>14.48612067458814</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D45" t="n">
-        <v>14.48612067458814</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E45" t="n">
-        <v>14.48612067458814</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F45" t="n">
-        <v>14.48612067458814</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G45" t="n">
-        <v>14.48612067458814</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H45" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I45" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J45" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K45" t="n">
-        <v>193.7518640226163</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L45" t="n">
-        <v>373.0176073706446</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M45" t="n">
-        <v>373.0176073706446</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N45" t="n">
-        <v>373.0176073706446</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O45" t="n">
-        <v>427.8675122870389</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P45" t="n">
-        <v>607.133255635067</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q45" t="n">
-        <v>607.133255635067</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R45" t="n">
-        <v>724.3060337294069</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S45" t="n">
-        <v>724.3060337294069</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T45" t="n">
-        <v>594.1273900600085</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U45" t="n">
-        <v>594.1273900600085</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V45" t="n">
-        <v>594.1273900600085</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W45" t="n">
-        <v>411.2218259869259</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X45" t="n">
-        <v>256.3543902258058</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y45" t="n">
-        <v>242.246482917709</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>275.7077814166879</v>
+        <v>726.6741060804052</v>
       </c>
       <c r="C46" t="n">
-        <v>103.1460698999128</v>
+        <v>554.1123945636301</v>
       </c>
       <c r="D46" t="n">
-        <v>103.1460698999128</v>
+        <v>388.2344017651528</v>
       </c>
       <c r="E46" t="n">
-        <v>103.1460698999128</v>
+        <v>218.4763980158901</v>
       </c>
       <c r="F46" t="n">
-        <v>103.1460698999128</v>
+        <v>41.76934397764629</v>
       </c>
       <c r="G46" t="n">
-        <v>103.1460698999128</v>
+        <v>41.76934397764629</v>
       </c>
       <c r="H46" t="n">
-        <v>103.1460698999128</v>
+        <v>41.76934397764629</v>
       </c>
       <c r="I46" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J46" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K46" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L46" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M46" t="n">
-        <v>193.7518640226163</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N46" t="n">
-        <v>197.5817721690183</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O46" t="n">
-        <v>376.8475155170465</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P46" t="n">
-        <v>556.1132588650746</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q46" t="n">
-        <v>724.3060337294069</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R46" t="n">
-        <v>724.3060337294069</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S46" t="n">
-        <v>724.3060337294069</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T46" t="n">
-        <v>724.3060337294069</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U46" t="n">
-        <v>724.3060337294069</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V46" t="n">
-        <v>541.4004696563243</v>
+        <v>726.6741060804052</v>
       </c>
       <c r="W46" t="n">
-        <v>541.4004696563243</v>
+        <v>726.6741060804052</v>
       </c>
       <c r="X46" t="n">
-        <v>358.4949055832417</v>
+        <v>726.6741060804052</v>
       </c>
       <c r="Y46" t="n">
-        <v>358.4949055832417</v>
+        <v>726.6741060804052</v>
       </c>
     </row>
   </sheetData>
@@ -8067,10 +8069,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>288.7962490401609</v>
+      </c>
+      <c r="O3" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="O3" t="n">
-        <v>288.7962490401609</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
@@ -8222,19 +8224,19 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P5" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8377,22 +8379,22 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="O7" t="n">
-        <v>57.99715944515106</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8462,13 +8464,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O8" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="Q8" t="n">
         <v>424.2958575201044</v>
@@ -8614,22 +8616,22 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N10" t="n">
-        <v>409.401749030468</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8699,10 +8701,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O11" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="O11" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="P11" t="n">
         <v>424.2958575201044</v>
@@ -8778,10 +8780,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
+        <v>288.7962490401609</v>
+      </c>
+      <c r="O12" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="O12" t="n">
-        <v>288.7962490401609</v>
       </c>
       <c r="P12" t="n">
         <v>424.2958575201044</v>
@@ -8851,10 +8853,10 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>58.38468441396117</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="N13" t="n">
         <v>424.2958575201043</v>
@@ -8866,7 +8868,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8936,13 +8938,13 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O14" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="P14" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q14" t="n">
         <v>424.2958575201044</v>
@@ -9082,22 +9084,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>369.8475292559658</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>424.2958575201044</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
@@ -9173,10 +9175,10 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="O17" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O17" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P17" t="n">
         <v>424.2958575201044</v>
@@ -9252,10 +9254,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="O18" t="n">
         <v>288.7962490401609</v>
-      </c>
-      <c r="O18" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P18" t="n">
         <v>424.2958575201044</v>
@@ -9328,16 +9330,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>239.5100572483141</v>
+        <v>312.7888501519116</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821538</v>
@@ -9410,16 +9412,16 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>585.1784344521124</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O20" t="n">
-        <v>667.515206607857</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P20" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9489,16 +9491,16 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="O21" t="n">
-        <v>347.9676668794094</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P21" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9556,19 +9558,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O22" t="n">
         <v>423.9083325512944</v>
@@ -9647,16 +9649,16 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>585.1784344521124</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O23" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P23" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9726,19 +9728,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>667.515206607857</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="O24" t="n">
-        <v>466.3240083888435</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9793,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -9802,10 +9804,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512944</v>
@@ -9881,22 +9883,22 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>424.2958575201043</v>
+        <v>407.152590549595</v>
       </c>
       <c r="N26" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="O26" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q26" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9969,13 +9971,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="P27" t="n">
+        <v>288.796249040161</v>
+      </c>
+      <c r="Q27" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="Q27" t="n">
-        <v>407.1525905495951</v>
-      </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10033,25 +10035,25 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>424.2958575201044</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="O28" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10118,22 +10120,22 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N29" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O29" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="Q29" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,7 +10190,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10200,19 +10202,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="N30" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="P30" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q30" t="n">
-        <v>79.31589866453214</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10267,10 +10269,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>223.0854642319581</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -10279,13 +10281,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="N31" t="n">
-        <v>424.2958575201044</v>
+        <v>384.4104887602591</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>169.8916917821538</v>
@@ -10346,14 +10348,14 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
@@ -10361,10 +10363,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P32" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q32" t="n">
         <v>424.2958575201044</v>
@@ -10437,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>424.2958575201043</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="O33" t="n">
         <v>424.2958575201043</v>
@@ -10446,7 +10448,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="Q33" t="n">
-        <v>288.796249040161</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10510,22 +10512,22 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>407.5401155184051</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N34" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>237.6484237362511</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10592,22 +10594,22 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="N35" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
       <c r="P35" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q35" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,10 +10682,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="P36" t="n">
+        <v>424.2958575201044</v>
+      </c>
+      <c r="Q36" t="n">
         <v>288.796249040161</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10741,19 +10743,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>424.2958575201044</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N37" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -10762,7 +10764,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.99715944515106</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10823,25 +10825,25 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>407.152590549595</v>
       </c>
       <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="M38" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="N38" t="n">
+      <c r="P38" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>407.1525905495951</v>
-      </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10990,10 +10992,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="N40" t="n">
-        <v>424.2958575201043</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="O40" t="n">
-        <v>310.5396916710388</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
@@ -11066,22 +11068,22 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N41" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O41" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P41" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="Q41" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11145,13 +11147,13 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>288.7962490401609</v>
+      </c>
+      <c r="O42" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>407.152590549595</v>
       </c>
       <c r="P42" t="n">
         <v>424.2958575201044</v>
@@ -11160,7 +11162,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11215,25 +11217,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="N43" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>298.4303698644312</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821538</v>
@@ -11303,19 +11305,19 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>2.897594199674156</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O44" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P44" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q44" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11376,25 +11378,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O45" t="n">
-        <v>55.40394435999428</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="P45" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -11461,16 +11463,16 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>181.0765084323517</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="N46" t="n">
-        <v>3.868594087274715</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O46" t="n">
-        <v>181.0765084323517</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>181.0765084323517</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821538</v>
@@ -22550,10 +22552,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
@@ -22595,13 +22597,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>74.70556879775745</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22610,10 +22612,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>376.7330705712591</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -22708,7 +22710,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -22717,10 +22719,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>84.94642027156051</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -22750,16 +22752,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22771,7 +22773,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>72.78996144619879</v>
       </c>
     </row>
     <row r="5">
@@ -22784,22 +22786,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>50.28158547030785</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>116.6353915753823</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22838,19 +22840,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22942,25 +22944,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>58.42904050020375</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -22999,13 +23001,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>53.90790462992848</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -23021,10 +23023,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>57.123793448372</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E8" t="n">
         <v>5.14113987318342</v>
@@ -23084,7 +23086,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>40.52414525755449</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -23176,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -23188,16 +23190,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>52.71734668508481</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23227,10 +23229,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -23242,10 +23244,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>15.35712742186308</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -23258,13 +23260,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>50.40195730499255</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>7.254829457195569</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>45.66528513073808</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23416,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -23425,7 +23427,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
@@ -23467,10 +23469,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>83.83779588133126</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.965203041374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>18.87936968596779</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -23555,13 +23557,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>17.03518778052705</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23650,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>83.83779588133098</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -23662,7 +23664,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>153.965203041374</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23729,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>18.87936968596779</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -23789,10 +23791,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>354.381192774452</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23887,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23938,13 +23940,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>86.5975658583472</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>217.5909421997517</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -23966,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>48.02230273026214</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E20" t="n">
-        <v>148.9022607610179</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23987,7 +23989,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24023,16 +24025,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -24130,22 +24132,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>20.09044341466983</v>
       </c>
       <c r="Y22" t="n">
-        <v>26.97216184894938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24206,16 +24208,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D23" t="n">
-        <v>369.0353499799958</v>
+        <v>46.2267941999246</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>397.3838530629687</v>
@@ -24272,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>117.766182674437</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>155.3844304619683</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24443,16 +24445,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
         <v>7.254829457195569</v>
       </c>
       <c r="E26" t="n">
-        <v>5.14113987318342</v>
+        <v>45.66528513073808</v>
       </c>
       <c r="F26" t="n">
-        <v>49.86896399117649</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>397.3838530629687</v>
@@ -24506,7 +24508,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -24604,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -24655,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>250.1963137033155</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>14.56796726996959</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -24677,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
@@ -24692,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>397.3838530629687</v>
+        <v>76.22495772671317</v>
       </c>
       <c r="H29" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0.4126214791313976</v>
@@ -24734,10 +24736,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U29" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
@@ -24746,7 +24748,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>27.51708619436948</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24838,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -24853,10 +24855,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>66.69364622360227</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24891,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>254.6738902829384</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24917,10 +24919,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>30.30936224823137</v>
       </c>
       <c r="D32" t="n">
-        <v>13.54224091458354</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
         <v>429.4369973932878</v>
@@ -24935,7 +24937,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24977,10 +24979,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25081,13 +25083,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>129.0161272123185</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
@@ -25129,16 +25131,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>89.08784725012796</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25151,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>9.465190568306582</v>
+        <v>59.33415455948301</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>337.3612562763427</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
         <v>286.2388530112159</v>
@@ -25202,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.09846286359272</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -25324,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>76.99711004439305</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25357,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25391,22 +25393,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>376.9068676604064</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -25439,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>41.23124748277456</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -25558,10 +25560,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>143.2952603906677</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25597,22 +25599,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>199.8639382355963</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25625,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>9.465190568306582</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>49.86896399117649</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
@@ -25691,10 +25693,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>18.87936968596773</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25783,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>174.0101156442034</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>150.0830022581258</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -25862,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>274.2688594611956</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>397.0067143404082</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -25913,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>36.79004642334004</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -25925,10 +25927,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>219.7303916107253</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>233.8745303541307</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -25947,19 +25949,19 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>84.53123883647795</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>41.31829566194965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25992,25 +25994,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>62.82088317610075</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>174.5731815300314</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>197.1263427586206</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>2.393018291786206</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>111.2540931935556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26020,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>107.9411796069089</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
@@ -26041,7 +26043,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>80.02593111079385</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,22 +26073,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>103.0094446159221</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>61.86132868756994</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>366617.1295643241</v>
+        <v>366617.1295643243</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>366617.1295643242</v>
+        <v>366617.1295643243</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>366617.1295643243</v>
+        <v>366617.1295643242</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>366617.1295643242</v>
+        <v>366617.1295643243</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>366617.1295643241</v>
+        <v>366617.1295643242</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>515741.6233983053</v>
+        <v>366617.1295643243</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>515741.6233983054</v>
+        <v>366617.1295643242</v>
       </c>
     </row>
     <row r="10">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>156460.9896052388</v>
+        <v>366617.1295643241</v>
       </c>
     </row>
   </sheetData>
@@ -26314,7 +26316,7 @@
         <v>54091.05190293308</v>
       </c>
       <c r="C2" t="n">
-        <v>54091.05190293309</v>
+        <v>54091.05190293308</v>
       </c>
       <c r="D2" t="n">
         <v>54091.05190293308</v>
@@ -26323,16 +26325,16 @@
         <v>54091.05190293308</v>
       </c>
       <c r="F2" t="n">
-        <v>54091.05190293307</v>
+        <v>54091.05190293308</v>
       </c>
       <c r="G2" t="n">
         <v>54091.05190293308</v>
       </c>
       <c r="H2" t="n">
-        <v>76093.02640302865</v>
+        <v>54091.05190293308</v>
       </c>
       <c r="I2" t="n">
-        <v>76093.02640302865</v>
+        <v>54091.05190293308</v>
       </c>
       <c r="J2" t="n">
         <v>54091.05190293308</v>
@@ -26347,13 +26349,13 @@
         <v>54091.05190293308</v>
       </c>
       <c r="N2" t="n">
-        <v>54091.05190293308</v>
+        <v>54091.05190293307</v>
       </c>
       <c r="O2" t="n">
         <v>54091.05190293308</v>
       </c>
       <c r="P2" t="n">
-        <v>23084.40830241228</v>
+        <v>54091.05190293308</v>
       </c>
     </row>
     <row r="3">
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>65622.76935801745</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>47377.58197227423</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26418,7 +26420,7 @@
         <v>367.9287957210698</v>
       </c>
       <c r="C4" t="n">
-        <v>367.9287957210698</v>
+        <v>367.9287957210699</v>
       </c>
       <c r="D4" t="n">
         <v>367.9287957210698</v>
@@ -26433,16 +26435,16 @@
         <v>367.9287957210698</v>
       </c>
       <c r="H4" t="n">
-        <v>517.586820413078</v>
+        <v>367.9287957210698</v>
       </c>
       <c r="I4" t="n">
-        <v>517.5868204130782</v>
+        <v>367.9287957210698</v>
       </c>
       <c r="J4" t="n">
-        <v>367.9287957210699</v>
+        <v>367.9287957210698</v>
       </c>
       <c r="K4" t="n">
-        <v>367.9287957210699</v>
+        <v>367.9287957210698</v>
       </c>
       <c r="L4" t="n">
         <v>367.9287957210698</v>
@@ -26454,10 +26456,10 @@
         <v>367.9287957210698</v>
       </c>
       <c r="O4" t="n">
-        <v>367.9287957210698</v>
+        <v>367.9287957210699</v>
       </c>
       <c r="P4" t="n">
-        <v>157.0207686454599</v>
+        <v>367.9287957210699</v>
       </c>
     </row>
     <row r="5">
@@ -26485,10 +26487,10 @@
         <v>25797.18813722234</v>
       </c>
       <c r="H5" t="n">
-        <v>40584.9245617577</v>
+        <v>25797.18813722234</v>
       </c>
       <c r="I5" t="n">
-        <v>40584.9245617577</v>
+        <v>25797.18813722234</v>
       </c>
       <c r="J5" t="n">
         <v>25797.18813722234</v>
@@ -26509,7 +26511,7 @@
         <v>25797.18813722234</v>
       </c>
       <c r="P5" t="n">
-        <v>11009.45171268698</v>
+        <v>25797.18813722234</v>
       </c>
     </row>
     <row r="6">
@@ -26522,7 +26524,7 @@
         <v>-147892.9656897203</v>
       </c>
       <c r="C6" t="n">
-        <v>-5701.665030010321</v>
+        <v>-5701.665030010336</v>
       </c>
       <c r="D6" t="n">
         <v>-5701.665030010328</v>
@@ -26531,22 +26533,22 @@
         <v>27925.93496998966</v>
       </c>
       <c r="F6" t="n">
-        <v>27925.93496998966</v>
+        <v>27925.93496998967</v>
       </c>
       <c r="G6" t="n">
         <v>27925.93496998966</v>
       </c>
       <c r="H6" t="n">
-        <v>-30632.25433715959</v>
+        <v>27925.93496998966</v>
       </c>
       <c r="I6" t="n">
-        <v>34990.51502085786</v>
+        <v>27925.93496998967</v>
       </c>
       <c r="J6" t="n">
-        <v>-19451.64700228457</v>
+        <v>-83088.53037500053</v>
       </c>
       <c r="K6" t="n">
-        <v>27925.93496998967</v>
+        <v>27925.93496998966</v>
       </c>
       <c r="L6" t="n">
         <v>27925.93496998966</v>
@@ -26561,7 +26563,7 @@
         <v>27925.93496998966</v>
       </c>
       <c r="P6" t="n">
-        <v>11917.93582107984</v>
+        <v>27925.93496998966</v>
       </c>
     </row>
   </sheetData>
@@ -26805,10 +26807,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="H4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="I4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="J4" t="n">
         <v>424.2958575201043</v>
@@ -26829,7 +26831,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="P4" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201043</v>
       </c>
     </row>
   </sheetData>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34787,10 +34789,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>288.7962490401609</v>
+      </c>
+      <c r="O3" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="O3" t="n">
-        <v>288.7962490401609</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
@@ -34942,19 +34944,19 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P5" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35097,22 +35099,22 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="O7" t="n">
-        <v>57.99715944515106</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35182,13 +35184,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O8" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="Q8" t="n">
         <v>424.2958575201044</v>
@@ -35334,22 +35336,22 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N10" t="n">
-        <v>409.401749030468</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35419,10 +35421,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O11" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="O11" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="P11" t="n">
         <v>424.2958575201044</v>
@@ -35498,10 +35500,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
+        <v>288.7962490401609</v>
+      </c>
+      <c r="O12" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="O12" t="n">
-        <v>288.7962490401609</v>
       </c>
       <c r="P12" t="n">
         <v>424.2958575201044</v>
@@ -35571,10 +35573,10 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>58.38468441396117</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="N13" t="n">
         <v>424.2958575201043</v>
@@ -35586,7 +35588,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35656,13 +35658,13 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O14" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="P14" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q14" t="n">
         <v>424.2958575201044</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>369.8475292559658</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>424.2958575201044</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
@@ -35893,10 +35895,10 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="O17" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O17" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P17" t="n">
         <v>424.2958575201044</v>
@@ -35972,10 +35974,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="O18" t="n">
         <v>288.7962490401609</v>
-      </c>
-      <c r="O18" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P18" t="n">
         <v>424.2958575201044</v>
@@ -36048,16 +36050,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>239.5100572483141</v>
+        <v>312.7888501519116</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821539</v>
@@ -36130,16 +36132,16 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>585.1784344521124</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O20" t="n">
-        <v>667.515206607857</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P20" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697544</v>
@@ -36209,16 +36211,16 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="O21" t="n">
-        <v>347.9676668794094</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P21" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36276,25 +36278,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908068</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821539</v>
@@ -36367,16 +36369,16 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>585.1784344521124</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O23" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P23" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697544</v>
@@ -36446,19 +36448,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>667.515206607857</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="O24" t="n">
-        <v>466.3240083888435</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908068</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36522,16 +36524,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821539</v>
@@ -36601,22 +36603,22 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>424.2958575201043</v>
+        <v>407.152590549595</v>
       </c>
       <c r="N26" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="O26" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q26" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36689,13 +36691,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="P27" t="n">
+        <v>288.796249040161</v>
+      </c>
+      <c r="Q27" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="Q27" t="n">
-        <v>407.1525905495951</v>
-      </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36753,25 +36755,25 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>424.2958575201044</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="O28" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,22 +36840,22 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N29" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O29" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="Q29" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36920,19 +36922,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="N30" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="P30" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q30" t="n">
-        <v>79.31589866453214</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>223.0854642319581</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -36999,13 +37001,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="N31" t="n">
-        <v>424.2958575201044</v>
+        <v>384.4104887602591</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>169.8916917821539</v>
@@ -37066,14 +37068,14 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
@@ -37081,10 +37083,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P32" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q32" t="n">
         <v>424.2958575201044</v>
@@ -37157,7 +37159,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>424.2958575201043</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="O33" t="n">
         <v>424.2958575201043</v>
@@ -37166,7 +37168,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="Q33" t="n">
-        <v>288.796249040161</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37230,22 +37232,22 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>407.5401155184051</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N34" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>237.6484237362511</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,22 +37314,22 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="N35" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
       <c r="P35" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q35" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37400,10 +37402,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="P36" t="n">
+        <v>424.2958575201044</v>
+      </c>
+      <c r="Q36" t="n">
         <v>288.796249040161</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37461,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>424.2958575201044</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N37" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -37482,7 +37484,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.99715944515106</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,25 +37545,25 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>407.152590549595</v>
       </c>
       <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="M38" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="N38" t="n">
+      <c r="P38" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>407.1525905495951</v>
-      </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37710,10 +37712,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="N40" t="n">
-        <v>424.2958575201043</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="O40" t="n">
-        <v>310.5396916710388</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
@@ -37786,22 +37788,22 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N41" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O41" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P41" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="Q41" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,13 +37867,13 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>288.7962490401609</v>
+      </c>
+      <c r="O42" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>407.152590549595</v>
       </c>
       <c r="P42" t="n">
         <v>424.2958575201044</v>
@@ -37880,7 +37882,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,25 +37937,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="N43" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>298.4303698644312</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821539</v>
@@ -38023,22 +38025,22 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>2.897594199674156</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O44" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P44" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q44" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38098,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O45" t="n">
-        <v>55.40394435999428</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="P45" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094342</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38181,19 +38183,19 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>181.0765084323517</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="N46" t="n">
-        <v>3.868594087274715</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O46" t="n">
-        <v>181.0765084323517</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>181.0765084323517</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_9.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-49321.19497069902</v>
+        <v>-55556.51246985399</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11090349.1787348</v>
+        <v>11090349.17873481</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4239238.937196156</v>
+        <v>4239238.937196155</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>132.4132097347949</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -724,7 +724,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>38.21796821522332</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -834,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>28.48574519247731</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -885,7 +885,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>152.355512532834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -913,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>169.6034614358336</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>322.6011327561353</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
@@ -992,7 +992,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H6" t="n">
-        <v>41.31829566194965</v>
+        <v>41.31829566194966</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>62.82088317610085</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T6" t="n">
         <v>128.8768572327044</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>74.75347383593882</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>29.34430923286766</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D8" t="n">
-        <v>424.2958575201043</v>
+        <v>73.74498359523473</v>
       </c>
       <c r="E8" t="n">
         <v>424.2958575201043</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>374.4268935289279</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H9" t="n">
-        <v>41.31829566194965</v>
+        <v>41.31829566194966</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1293,25 +1293,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>124.4145853753908</v>
       </c>
       <c r="I10" t="n">
-        <v>35.05600304798661</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1350,16 +1350,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1372,16 +1372,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D11" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="E11" t="n">
-        <v>383.7717122625497</v>
+        <v>99.57943352414564</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H12" t="n">
-        <v>41.31829566194965</v>
+        <v>41.31829566194966</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>159.582856075998</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>179.1084371899612</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>383.77171226255</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>156.5603386732361</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H15" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>106.0626366504663</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>80.41397507595727</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>46.42570726862482</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>4.609587791059698</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>71.05138915663611</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>8.490625371029328</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>374.0142720497965</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>383.0646100373297</v>
       </c>
     </row>
     <row r="21">
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>164.205215149465</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>222.8473937052518</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="D23" t="n">
-        <v>385.3238927773753</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>73.74498359523473</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2538,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>113.9217099076031</v>
+        <v>134.8260540721778</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2557,22 +2557,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D26" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>383.7717122625497</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>19.76988317734234</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>72.77482858563174</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>228.3698698499521</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2794,22 +2794,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>139.0500605498272</v>
       </c>
       <c r="F29" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>321.1588953362556</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U29" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -2888,7 +2888,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H30" t="n">
-        <v>41.31829566194965</v>
+        <v>41.31829566194966</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2955,22 +2955,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>21.07970350946914</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>46.13140510195792</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3031,16 +3031,16 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>403.4516858401796</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>373.7197913037078</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3195,13 +3195,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>39.04429649945163</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>72.29201374822404</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>374.4268935289279</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D35" t="n">
-        <v>424.2958575201043</v>
+        <v>178.2051142448231</v>
       </c>
       <c r="E35" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3426,22 +3426,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>61.50604252213616</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,19 +3477,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.4661514598981</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3505,22 +3505,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F38" t="n">
-        <v>46.68188763447793</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,10 +3559,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>73.03788137001466</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H39" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3666,19 +3666,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>72.29201374822404</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>43.556713721733</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>373.7197913037078</v>
+        <v>152.1827705982494</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3796,16 +3796,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>100.7541757776301</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>92.85483486179584</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D44" t="n">
-        <v>34.54397263689169</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>314.0028360136658</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>7.747418622277563</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>4.818953518891981</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>891.1070171270717</v>
+        <v>167.6943855054416</v>
       </c>
       <c r="C2" t="n">
-        <v>891.1070171270717</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D2" t="n">
-        <v>462.52534286434</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E2" t="n">
         <v>33.94366860160834</v>
@@ -4357,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V2" t="n">
-        <v>1334.566480014244</v>
+        <v>991.6923035150976</v>
       </c>
       <c r="W2" t="n">
-        <v>929.7110254252771</v>
+        <v>586.8368489261309</v>
       </c>
       <c r="X2" t="n">
-        <v>891.1070171270717</v>
+        <v>167.6943855054416</v>
       </c>
       <c r="Y2" t="n">
-        <v>891.1070171270717</v>
+        <v>167.6943855054416</v>
       </c>
     </row>
     <row r="3">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.94366860160834</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="C4" t="n">
-        <v>33.94366860160834</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>202.6193229036352</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>202.6193229036352</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>202.6193229036352</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>202.6193229036352</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>62.71714859400967</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4512,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U4" t="n">
-        <v>992.2117929153466</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V4" t="n">
-        <v>705.2562847857771</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W4" t="n">
-        <v>433.2298803720686</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X4" t="n">
-        <v>187.8381257054811</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="Y4" t="n">
-        <v>33.94366860160834</v>
+        <v>368.4973157021125</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>205.6770856874316</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C5" t="n">
-        <v>205.6770856874316</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D5" t="n">
-        <v>205.6770856874316</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E5" t="n">
-        <v>205.6770856874316</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F5" t="n">
-        <v>205.6770856874316</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G5" t="n">
-        <v>205.6770856874316</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I5" t="n">
         <v>33.94366860160834</v>
@@ -4576,16 +4576,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="M5" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="N5" t="n">
         <v>267.8706684926505</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>687.9235674375537</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>1107.976466382457</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1528.02936532736</v>
       </c>
       <c r="Q5" t="n">
         <v>1528.02936532736</v>
@@ -4594,25 +4594,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U5" t="n">
-        <v>1437.961127397434</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V5" t="n">
-        <v>1437.961127397434</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W5" t="n">
-        <v>1033.105672808467</v>
+        <v>1287.671826207552</v>
       </c>
       <c r="X5" t="n">
-        <v>613.9632093877782</v>
+        <v>868.5293627868627</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.6770856874316</v>
+        <v>460.2432390865162</v>
       </c>
     </row>
     <row r="6">
@@ -4637,7 +4637,7 @@
         <v>161.064410519212</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539589</v>
       </c>
       <c r="H6" t="n">
         <v>33.94366860160834</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>711.6628811189632</v>
+        <v>419.1124060907378</v>
       </c>
       <c r="C7" t="n">
-        <v>711.6628811189632</v>
+        <v>419.1124060907378</v>
       </c>
       <c r="D7" t="n">
-        <v>545.7848883204859</v>
+        <v>343.6038466604966</v>
       </c>
       <c r="E7" t="n">
-        <v>545.7848883204859</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="F7" t="n">
-        <v>369.0778342822422</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G7" t="n">
-        <v>203.4865593080698</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H7" t="n">
-        <v>63.58438499844436</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I7" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>67.00315850392299</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="L7" t="n">
-        <v>33.94366860160834</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="M7" t="n">
-        <v>453.9965675465116</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N7" t="n">
         <v>761.8145120199619</v>
@@ -4752,25 +4752,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U7" t="n">
-        <v>1270.644793662241</v>
+        <v>1397.332608038895</v>
       </c>
       <c r="V7" t="n">
-        <v>983.6892855326716</v>
+        <v>1110.377099909325</v>
       </c>
       <c r="W7" t="n">
-        <v>711.6628811189632</v>
+        <v>838.3506954956167</v>
       </c>
       <c r="X7" t="n">
-        <v>711.6628811189632</v>
+        <v>838.3506954956167</v>
       </c>
       <c r="Y7" t="n">
-        <v>711.6628811189632</v>
+        <v>610.9310248097249</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1318.974446717864</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="C8" t="n">
-        <v>1318.974446717864</v>
+        <v>964.8826548745612</v>
       </c>
       <c r="D8" t="n">
         <v>890.3927724551322</v>
@@ -4816,10 +4816,10 @@
         <v>33.94366860160834</v>
       </c>
       <c r="N8" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P8" t="n">
         <v>1107.976466382457</v>
@@ -4831,25 +4831,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="W8" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="X8" t="n">
-        <v>1318.974446717864</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="Y8" t="n">
-        <v>1318.974446717864</v>
+        <v>1393.464329137293</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>161.064410519212</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539589</v>
       </c>
       <c r="H9" t="n">
         <v>33.94366860160834</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>209.2559470001092</v>
+        <v>678.6417362648706</v>
       </c>
       <c r="C10" t="n">
-        <v>209.2559470001092</v>
+        <v>506.0800247480955</v>
       </c>
       <c r="D10" t="n">
-        <v>209.2559470001092</v>
+        <v>506.0800247480955</v>
       </c>
       <c r="E10" t="n">
-        <v>209.2559470001092</v>
+        <v>336.3220209988328</v>
       </c>
       <c r="F10" t="n">
-        <v>209.2559470001092</v>
+        <v>159.614966960589</v>
       </c>
       <c r="G10" t="n">
-        <v>209.2559470001092</v>
+        <v>159.614966960589</v>
       </c>
       <c r="H10" t="n">
-        <v>69.35377269048371</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I10" t="n">
         <v>33.94366860160834</v>
@@ -4971,7 +4971,7 @@
         <v>33.94366860160834</v>
       </c>
       <c r="M10" t="n">
-        <v>453.9965675465116</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N10" t="n">
         <v>761.8145120199619</v>
@@ -4986,28 +4986,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S10" t="n">
-        <v>1537.942061378414</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T10" t="n">
-        <v>1292.062614956869</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U10" t="n">
-        <v>1013.629614209975</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V10" t="n">
-        <v>726.6741060804052</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="W10" t="n">
-        <v>454.6477016666967</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="X10" t="n">
-        <v>209.2559470001092</v>
+        <v>906.0614069507624</v>
       </c>
       <c r="Y10" t="n">
-        <v>209.2559470001092</v>
+        <v>678.6417362648706</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1278.040966659728</v>
+        <v>991.6923035150976</v>
       </c>
       <c r="C11" t="n">
-        <v>1278.040966659728</v>
+        <v>563.1106292523659</v>
       </c>
       <c r="D11" t="n">
-        <v>849.4592923969963</v>
+        <v>134.5289549896343</v>
       </c>
       <c r="E11" t="n">
-        <v>461.8110981924006</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F11" t="n">
         <v>33.94366860160834</v>
@@ -5068,25 +5068,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S11" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T11" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U11" t="n">
-        <v>1697.183430080417</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V11" t="n">
-        <v>1697.183430080417</v>
+        <v>991.6923035150976</v>
       </c>
       <c r="W11" t="n">
-        <v>1697.183430080417</v>
+        <v>991.6923035150976</v>
       </c>
       <c r="X11" t="n">
-        <v>1278.040966659728</v>
+        <v>991.6923035150976</v>
       </c>
       <c r="Y11" t="n">
-        <v>1278.040966659728</v>
+        <v>991.6923035150976</v>
       </c>
     </row>
     <row r="12">
@@ -5111,7 +5111,7 @@
         <v>161.064410519212</v>
       </c>
       <c r="G12" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539589</v>
       </c>
       <c r="H12" t="n">
         <v>33.94366860160834</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>33.94366860160834</v>
+        <v>770.682113947452</v>
       </c>
       <c r="C13" t="n">
-        <v>33.94366860160834</v>
+        <v>770.682113947452</v>
       </c>
       <c r="D13" t="n">
-        <v>33.94366860160834</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="E13" t="n">
-        <v>33.94366860160834</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F13" t="n">
-        <v>33.94366860160834</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G13" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H13" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I13" t="n">
         <v>33.94366860160834</v>
@@ -5223,28 +5223,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R13" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S13" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T13" t="n">
-        <v>1535.988625963248</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U13" t="n">
-        <v>1257.555625216353</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="V13" t="n">
-        <v>970.6001170867833</v>
+        <v>1388.81010065622</v>
       </c>
       <c r="W13" t="n">
-        <v>698.5737126730747</v>
+        <v>1207.892487333027</v>
       </c>
       <c r="X13" t="n">
-        <v>453.1819580064872</v>
+        <v>962.500732666439</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.7622873205955</v>
+        <v>962.500732666439</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>890.3927724551322</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="C14" t="n">
         <v>890.3927724551322</v>
@@ -5308,22 +5308,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T14" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U14" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V14" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="W14" t="n">
-        <v>1309.535235875821</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="X14" t="n">
-        <v>890.3927724551322</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="Y14" t="n">
-        <v>890.3927724551322</v>
+        <v>1318.974446717864</v>
       </c>
     </row>
     <row r="15">
@@ -5336,7 +5336,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C15" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D15" t="n">
         <v>338.5686635760967</v>
@@ -5345,10 +5345,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F15" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G15" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H15" t="n">
         <v>33.94366860160834</v>
@@ -5357,19 +5357,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J15" t="n">
-        <v>33.94366860160834</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="K15" t="n">
-        <v>33.94366860160834</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="L15" t="n">
-        <v>33.94366860160834</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="M15" t="n">
-        <v>33.94366860160834</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="N15" t="n">
-        <v>319.8519551513677</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="O15" t="n">
         <v>739.9048540962709</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>33.94366860160834</v>
+        <v>711.8779941617646</v>
       </c>
       <c r="C16" t="n">
-        <v>33.94366860160834</v>
+        <v>711.8779941617646</v>
       </c>
       <c r="D16" t="n">
-        <v>33.94366860160834</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="E16" t="n">
-        <v>33.94366860160834</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F16" t="n">
-        <v>33.94366860160834</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G16" t="n">
         <v>33.94366860160834</v>
@@ -5439,13 +5439,13 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K16" t="n">
-        <v>33.94366860160834</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L16" t="n">
-        <v>33.94366860160834</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M16" t="n">
-        <v>341.7616130750586</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N16" t="n">
         <v>761.8145120199619</v>
@@ -5463,25 +5463,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S16" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T16" t="n">
-        <v>1451.303983658873</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="U16" t="n">
-        <v>1172.870982911978</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="V16" t="n">
-        <v>885.9154747824084</v>
+        <v>1456.715823927952</v>
       </c>
       <c r="W16" t="n">
-        <v>613.8890703687</v>
+        <v>1184.689419514244</v>
       </c>
       <c r="X16" t="n">
-        <v>368.4973157021125</v>
+        <v>939.2976648476563</v>
       </c>
       <c r="Y16" t="n">
-        <v>141.0776450162207</v>
+        <v>711.8779941617646</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>33.94366860160834</v>
+        <v>80.83832240830009</v>
       </c>
       <c r="C17" t="n">
-        <v>33.94366860160834</v>
+        <v>80.83832240830009</v>
       </c>
       <c r="D17" t="n">
-        <v>33.94366860160834</v>
+        <v>80.83832240830009</v>
       </c>
       <c r="E17" t="n">
-        <v>33.94366860160834</v>
+        <v>80.83832240830009</v>
       </c>
       <c r="F17" t="n">
         <v>33.94366860160834</v>
@@ -5527,7 +5527,7 @@
         <v>33.94366860160834</v>
       </c>
       <c r="N17" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O17" t="n">
         <v>687.9235674375537</v>
@@ -5551,16 +5551,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V17" t="n">
-        <v>1692.527280796519</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W17" t="n">
-        <v>1287.671826207552</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="X17" t="n">
-        <v>868.5293627868627</v>
+        <v>915.4240165935545</v>
       </c>
       <c r="Y17" t="n">
-        <v>460.2432390865162</v>
+        <v>507.1378928932079</v>
       </c>
     </row>
     <row r="18">
@@ -5594,19 +5594,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J18" t="n">
-        <v>33.94366860160834</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="K18" t="n">
-        <v>33.94366860160834</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="L18" t="n">
-        <v>33.94366860160834</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="M18" t="n">
-        <v>33.94366860160834</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="N18" t="n">
-        <v>453.9965675465116</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="O18" t="n">
         <v>739.9048540962709</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>542.1199904125018</v>
+        <v>718.5617128800624</v>
       </c>
       <c r="C19" t="n">
-        <v>542.1199904125018</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="D19" t="n">
-        <v>376.2419976140245</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="E19" t="n">
         <v>376.2419976140245</v>
@@ -5676,13 +5676,13 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K19" t="n">
-        <v>33.94366860160834</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L19" t="n">
-        <v>452.1535503695694</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M19" t="n">
-        <v>452.1535503695694</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="N19" t="n">
         <v>761.8145120199619</v>
@@ -5700,25 +5700,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S19" t="n">
-        <v>1625.414350124219</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T19" t="n">
-        <v>1379.534903702674</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U19" t="n">
-        <v>1101.10190295578</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="V19" t="n">
-        <v>814.1463948262103</v>
+        <v>1164.348475529303</v>
       </c>
       <c r="W19" t="n">
-        <v>542.1199904125018</v>
+        <v>1155.772086265637</v>
       </c>
       <c r="X19" t="n">
-        <v>542.1199904125018</v>
+        <v>910.3803315990494</v>
       </c>
       <c r="Y19" t="n">
-        <v>542.1199904125018</v>
+        <v>910.3803315990494</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1319.391236090724</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="C20" t="n">
-        <v>890.8095618279922</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="D20" t="n">
-        <v>462.2278875652606</v>
+        <v>462.52534286434</v>
       </c>
       <c r="E20" t="n">
-        <v>462.2278875652606</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F20" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G20" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H20" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I20" t="n">
         <v>33.94366860160834</v>
@@ -5764,7 +5764,7 @@
         <v>33.94366860160834</v>
       </c>
       <c r="N20" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O20" t="n">
         <v>687.9235674375537</v>
@@ -5794,10 +5794,10 @@
         <v>1697.183430080417</v>
       </c>
       <c r="X20" t="n">
-        <v>1697.183430080417</v>
+        <v>1278.040966659728</v>
       </c>
       <c r="Y20" t="n">
-        <v>1697.183430080417</v>
+        <v>891.1070171270717</v>
       </c>
     </row>
     <row r="21">
@@ -5810,7 +5810,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C21" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D21" t="n">
         <v>338.5686635760967</v>
@@ -5819,10 +5819,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F21" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G21" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H21" t="n">
         <v>33.94366860160834</v>
@@ -5831,22 +5831,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J21" t="n">
-        <v>33.94366860160834</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="K21" t="n">
-        <v>33.94366860160834</v>
+        <v>778.554892512724</v>
       </c>
       <c r="L21" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M21" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N21" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O21" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P21" t="n">
         <v>1159.957753041174</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>369.2929473250434</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="C22" t="n">
-        <v>369.2929473250434</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="D22" t="n">
-        <v>369.2929473250434</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E22" t="n">
-        <v>199.5349435757807</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F22" t="n">
-        <v>199.5349435757807</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G22" t="n">
         <v>33.94366860160834</v>
@@ -5910,16 +5910,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J22" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K22" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L22" t="n">
-        <v>33.94366860160834</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="M22" t="n">
-        <v>341.7616130750586</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N22" t="n">
         <v>761.8145120199619</v>
@@ -5934,28 +5934,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R22" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S22" t="n">
-        <v>1537.942061378414</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T22" t="n">
-        <v>1292.062614956869</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U22" t="n">
-        <v>1013.629614209975</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V22" t="n">
-        <v>1013.629614209975</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="W22" t="n">
-        <v>1013.629614209975</v>
+        <v>957.542327540508</v>
       </c>
       <c r="X22" t="n">
-        <v>788.5312367299223</v>
+        <v>712.1505728739205</v>
       </c>
       <c r="Y22" t="n">
-        <v>561.1115660440305</v>
+        <v>712.1505728739205</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>851.7413961748201</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="C23" t="n">
-        <v>423.1597219120885</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="D23" t="n">
-        <v>33.94366860160834</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="E23" t="n">
-        <v>33.94366860160834</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F23" t="n">
         <v>33.94366860160834</v>
@@ -6001,13 +6001,13 @@
         <v>33.94366860160834</v>
       </c>
       <c r="N23" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O23" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P23" t="n">
-        <v>1107.976466382457</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="Q23" t="n">
         <v>1528.02936532736</v>
@@ -6016,25 +6016,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S23" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T23" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U23" t="n">
-        <v>1697.183430080417</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="V23" t="n">
-        <v>1697.183430080417</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="W23" t="n">
-        <v>1697.183430080417</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="X23" t="n">
-        <v>1278.040966659728</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="Y23" t="n">
-        <v>1278.040966659728</v>
+        <v>1318.974446717864</v>
       </c>
     </row>
     <row r="24">
@@ -6068,22 +6068,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J24" t="n">
-        <v>33.94366860160834</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="K24" t="n">
-        <v>33.94366860160834</v>
+        <v>778.554892512724</v>
       </c>
       <c r="L24" t="n">
-        <v>33.94366860160834</v>
+        <v>778.554892512724</v>
       </c>
       <c r="M24" t="n">
-        <v>33.94366860160834</v>
+        <v>778.554892512724</v>
       </c>
       <c r="N24" t="n">
-        <v>319.8519551513677</v>
+        <v>778.554892512724</v>
       </c>
       <c r="O24" t="n">
-        <v>739.9048540962709</v>
+        <v>778.554892512724</v>
       </c>
       <c r="P24" t="n">
         <v>1159.957753041174</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>884.4397056785397</v>
+        <v>383.2124341566272</v>
       </c>
       <c r="C25" t="n">
-        <v>711.8779941617646</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="D25" t="n">
-        <v>546.0000013632873</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="E25" t="n">
-        <v>376.2419976140245</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F25" t="n">
-        <v>199.5349435757807</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G25" t="n">
         <v>33.94366860160834</v>
@@ -6150,13 +6150,13 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K25" t="n">
-        <v>308.7021231727439</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L25" t="n">
-        <v>726.9120049407049</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M25" t="n">
-        <v>761.8145120199619</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N25" t="n">
         <v>761.8145120199619</v>
@@ -6171,28 +6171,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R25" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S25" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T25" t="n">
-        <v>1697.183430080417</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U25" t="n">
-        <v>1418.750429333523</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V25" t="n">
-        <v>1418.750429333523</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="W25" t="n">
-        <v>1303.677995083419</v>
+        <v>856.0238595091064</v>
       </c>
       <c r="X25" t="n">
-        <v>1303.677995083419</v>
+        <v>610.6321048425189</v>
       </c>
       <c r="Y25" t="n">
-        <v>1076.258324397527</v>
+        <v>383.2124341566272</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1278.040966659728</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="C26" t="n">
-        <v>1278.040966659728</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="D26" t="n">
-        <v>849.4592923969963</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="E26" t="n">
-        <v>461.8110981924006</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F26" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G26" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H26" t="n">
         <v>33.94366860160834</v>
@@ -6235,43 +6235,43 @@
         <v>33.94366860160834</v>
       </c>
       <c r="M26" t="n">
-        <v>437.0247332457074</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N26" t="n">
-        <v>857.0776321906106</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O26" t="n">
-        <v>1277.130531135514</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P26" t="n">
-        <v>1697.183430080417</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q26" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R26" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S26" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T26" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U26" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V26" t="n">
-        <v>1697.183430080417</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W26" t="n">
-        <v>1697.183430080417</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="X26" t="n">
-        <v>1278.040966659728</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="Y26" t="n">
-        <v>1278.040966659728</v>
+        <v>751.6554974211238</v>
       </c>
     </row>
     <row r="27">
@@ -6284,7 +6284,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C27" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D27" t="n">
         <v>338.5686635760967</v>
@@ -6293,10 +6293,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F27" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G27" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H27" t="n">
         <v>33.94366860160834</v>
@@ -6305,22 +6305,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J27" t="n">
-        <v>33.94366860160834</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="K27" t="n">
-        <v>33.94366860160834</v>
+        <v>778.554892512724</v>
       </c>
       <c r="L27" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M27" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N27" t="n">
-        <v>453.9965675465116</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O27" t="n">
-        <v>874.0494664914149</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P27" t="n">
         <v>1159.957753041174</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>383.2124341566272</v>
+        <v>792.3583585686417</v>
       </c>
       <c r="C28" t="n">
-        <v>210.6507226398521</v>
+        <v>619.7966470518667</v>
       </c>
       <c r="D28" t="n">
-        <v>210.6507226398521</v>
+        <v>453.9186542533894</v>
       </c>
       <c r="E28" t="n">
-        <v>210.6507226398521</v>
+        <v>284.1606505041266</v>
       </c>
       <c r="F28" t="n">
-        <v>33.94366860160834</v>
+        <v>107.4535964658828</v>
       </c>
       <c r="G28" t="n">
         <v>33.94366860160834</v>
@@ -6387,13 +6387,13 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K28" t="n">
-        <v>308.7021231727439</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L28" t="n">
-        <v>726.9120049407049</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M28" t="n">
-        <v>726.9120049407049</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N28" t="n">
         <v>761.8145120199619</v>
@@ -6408,28 +6408,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R28" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S28" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T28" t="n">
-        <v>1451.303983658873</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U28" t="n">
-        <v>1172.870982911978</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V28" t="n">
-        <v>885.9154747824084</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="W28" t="n">
-        <v>613.8890703687</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="X28" t="n">
-        <v>383.2124341566272</v>
+        <v>984.1769772876289</v>
       </c>
       <c r="Y28" t="n">
-        <v>383.2124341566272</v>
+        <v>984.1769772876289</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1075.344177331261</v>
+        <v>1030.847379071119</v>
       </c>
       <c r="C29" t="n">
-        <v>1075.344177331261</v>
+        <v>602.2657048083877</v>
       </c>
       <c r="D29" t="n">
-        <v>1075.344177331261</v>
+        <v>602.2657048083877</v>
       </c>
       <c r="E29" t="n">
-        <v>1075.344177331261</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F29" t="n">
-        <v>647.4767477404685</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G29" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H29" t="n">
         <v>33.94366860160834</v>
@@ -6472,43 +6472,43 @@
         <v>33.94366860160834</v>
       </c>
       <c r="M29" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="N29" t="n">
         <v>453.9965675465116</v>
       </c>
-      <c r="N29" t="n">
-        <v>874.0494664914149</v>
-      </c>
       <c r="O29" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P29" t="n">
-        <v>1277.130531135514</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q29" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R29" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S29" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T29" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U29" t="n">
-        <v>1437.961127397434</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V29" t="n">
-        <v>1075.344177331261</v>
+        <v>1030.847379071119</v>
       </c>
       <c r="W29" t="n">
-        <v>1075.344177331261</v>
+        <v>1030.847379071119</v>
       </c>
       <c r="X29" t="n">
-        <v>1075.344177331261</v>
+        <v>1030.847379071119</v>
       </c>
       <c r="Y29" t="n">
-        <v>1075.344177331261</v>
+        <v>1030.847379071119</v>
       </c>
     </row>
     <row r="30">
@@ -6533,7 +6533,7 @@
         <v>161.064410519212</v>
       </c>
       <c r="G30" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539589</v>
       </c>
       <c r="H30" t="n">
         <v>33.94366860160834</v>
@@ -6542,25 +6542,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J30" t="n">
-        <v>33.94366860160834</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="K30" t="n">
-        <v>33.94366860160834</v>
+        <v>778.554892512724</v>
       </c>
       <c r="L30" t="n">
-        <v>33.94366860160834</v>
+        <v>1198.607791457627</v>
       </c>
       <c r="M30" t="n">
-        <v>453.9965675465116</v>
+        <v>1198.607791457627</v>
       </c>
       <c r="N30" t="n">
-        <v>453.9965675465116</v>
+        <v>1198.607791457627</v>
       </c>
       <c r="O30" t="n">
-        <v>739.9048540962709</v>
+        <v>1198.607791457627</v>
       </c>
       <c r="P30" t="n">
-        <v>1159.957753041174</v>
+        <v>1198.607791457627</v>
       </c>
       <c r="Q30" t="n">
         <v>1580.010651986078</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>195.1384727187784</v>
+        <v>763.7330636584709</v>
       </c>
       <c r="C31" t="n">
-        <v>195.1384727187784</v>
+        <v>763.7330636584709</v>
       </c>
       <c r="D31" t="n">
-        <v>195.1384727187784</v>
+        <v>597.8550708599936</v>
       </c>
       <c r="E31" t="n">
-        <v>195.1384727187784</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="F31" t="n">
-        <v>195.1384727187784</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G31" t="n">
-        <v>195.1384727187784</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H31" t="n">
-        <v>55.23629840915294</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I31" t="n">
         <v>33.94366860160834</v>
@@ -6624,19 +6624,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K31" t="n">
-        <v>308.7021231727439</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L31" t="n">
-        <v>308.7021231727439</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M31" t="n">
-        <v>728.7550221176472</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N31" t="n">
-        <v>1109.321405990304</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O31" t="n">
-        <v>1528.990655216085</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P31" t="n">
         <v>1528.990655216085</v>
@@ -6645,28 +6645,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R31" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S31" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T31" t="n">
-        <v>1697.183430080417</v>
+        <v>1469.926861192919</v>
       </c>
       <c r="U31" t="n">
-        <v>1418.750429333523</v>
+        <v>1469.926861192919</v>
       </c>
       <c r="V31" t="n">
-        <v>1131.794921203953</v>
+        <v>1182.97135306335</v>
       </c>
       <c r="W31" t="n">
-        <v>859.7685167902448</v>
+        <v>1182.97135306335</v>
       </c>
       <c r="X31" t="n">
-        <v>614.3767621236573</v>
+        <v>1182.97135306335</v>
       </c>
       <c r="Y31" t="n">
-        <v>386.9570914377655</v>
+        <v>955.5516823774581</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>869.7548429593813</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="C32" t="n">
-        <v>462.2278875652606</v>
+        <v>1268.601755817686</v>
       </c>
       <c r="D32" t="n">
-        <v>462.2278875652606</v>
+        <v>840.020081554954</v>
       </c>
       <c r="E32" t="n">
-        <v>462.2278875652606</v>
+        <v>411.4384072922223</v>
       </c>
       <c r="F32" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G32" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H32" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I32" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J32" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K32" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L32" t="n">
-        <v>874.0494664914149</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M32" t="n">
-        <v>874.0494664914149</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N32" t="n">
-        <v>874.0494664914149</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O32" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P32" t="n">
         <v>1107.976466382457</v>
@@ -6742,10 +6742,10 @@
         <v>1697.183430080417</v>
       </c>
       <c r="X32" t="n">
-        <v>1278.040966659728</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y32" t="n">
-        <v>869.7548429593813</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="33">
@@ -6758,7 +6758,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C33" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D33" t="n">
         <v>338.5686635760967</v>
@@ -6767,10 +6767,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F33" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G33" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H33" t="n">
         <v>33.94366860160834</v>
@@ -6782,13 +6782,13 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K33" t="n">
-        <v>33.94366860160834</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="L33" t="n">
-        <v>33.94366860160834</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="M33" t="n">
-        <v>33.94366860160834</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="N33" t="n">
         <v>319.8519551513677</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>754.1203852620563</v>
+        <v>791.8706668136845</v>
       </c>
       <c r="C34" t="n">
-        <v>581.5586737452812</v>
+        <v>619.3089552969094</v>
       </c>
       <c r="D34" t="n">
-        <v>415.6806809468039</v>
+        <v>453.4309624984321</v>
       </c>
       <c r="E34" t="n">
-        <v>376.2419976140245</v>
+        <v>283.6729587491694</v>
       </c>
       <c r="F34" t="n">
-        <v>199.5349435757807</v>
+        <v>106.9659047109256</v>
       </c>
       <c r="G34" t="n">
         <v>33.94366860160834</v>
@@ -6858,22 +6858,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J34" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K34" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L34" t="n">
-        <v>33.94366860160834</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M34" t="n">
-        <v>453.9965675465116</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N34" t="n">
-        <v>874.0494664914149</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O34" t="n">
-        <v>1293.718715717196</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P34" t="n">
         <v>1528.990655216085</v>
@@ -6882,28 +6882,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R34" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S34" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T34" t="n">
-        <v>1697.183430080417</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U34" t="n">
-        <v>1418.750429333523</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="V34" t="n">
-        <v>1418.750429333523</v>
+        <v>983.6892855326716</v>
       </c>
       <c r="W34" t="n">
-        <v>1418.750429333523</v>
+        <v>983.6892855326716</v>
       </c>
       <c r="X34" t="n">
-        <v>1173.358674666935</v>
+        <v>983.6892855326716</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.9390039810435</v>
+        <v>983.6892855326716</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1697.183430080417</v>
+        <v>642.5305087682017</v>
       </c>
       <c r="C35" t="n">
-        <v>1318.974446717864</v>
+        <v>213.94883450547</v>
       </c>
       <c r="D35" t="n">
-        <v>890.3927724551322</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E35" t="n">
-        <v>461.8110981924006</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F35" t="n">
         <v>33.94366860160834</v>
@@ -6946,7 +6946,7 @@
         <v>33.94366860160834</v>
       </c>
       <c r="M35" t="n">
-        <v>267.8706684926505</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N35" t="n">
         <v>267.8706684926505</v>
@@ -6967,22 +6967,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T35" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U35" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V35" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="W35" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="X35" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="Y35" t="n">
-        <v>1697.183430080417</v>
+        <v>1068.830079253109</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J36" t="n">
-        <v>33.94366860160834</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="K36" t="n">
-        <v>33.94366860160834</v>
+        <v>778.554892512724</v>
       </c>
       <c r="L36" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M36" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N36" t="n">
-        <v>453.9965675465116</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O36" t="n">
-        <v>874.0494664914149</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P36" t="n">
-        <v>1294.102365436318</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q36" t="n">
         <v>1580.010651986078</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>610.9310248097249</v>
+        <v>686.1888934972177</v>
       </c>
       <c r="C37" t="n">
-        <v>438.3693132929499</v>
+        <v>686.1888934972177</v>
       </c>
       <c r="D37" t="n">
-        <v>438.3693132929499</v>
+        <v>520.3109006987404</v>
       </c>
       <c r="E37" t="n">
-        <v>438.3693132929499</v>
+        <v>350.5528969494776</v>
       </c>
       <c r="F37" t="n">
-        <v>261.6622592547061</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G37" t="n">
-        <v>96.07098428053376</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H37" t="n">
         <v>33.94366860160834</v>
@@ -7095,19 +7095,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J37" t="n">
-        <v>120.5233537662982</v>
+        <v>67.00315850392299</v>
       </c>
       <c r="K37" t="n">
-        <v>395.2818083374338</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="L37" t="n">
-        <v>813.4916901053949</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="M37" t="n">
-        <v>1181.483761245743</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N37" t="n">
-        <v>1181.483761245743</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O37" t="n">
         <v>1181.483761245743</v>
@@ -7125,22 +7125,22 @@
         <v>1675.765608785789</v>
       </c>
       <c r="T37" t="n">
-        <v>1675.765608785789</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U37" t="n">
-        <v>1397.332608038895</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V37" t="n">
-        <v>1110.377099909325</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="W37" t="n">
-        <v>838.3506954956167</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="X37" t="n">
-        <v>838.3506954956167</v>
+        <v>913.6085641831094</v>
       </c>
       <c r="Y37" t="n">
-        <v>610.9310248097249</v>
+        <v>686.1888934972177</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>771.6250763881362</v>
+        <v>1319.688691389803</v>
       </c>
       <c r="C38" t="n">
-        <v>771.6250763881362</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="D38" t="n">
-        <v>771.6250763881362</v>
+        <v>462.52534286434</v>
       </c>
       <c r="E38" t="n">
-        <v>771.6250763881362</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F38" t="n">
-        <v>724.4716545351282</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G38" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H38" t="n">
         <v>33.94366860160834</v>
@@ -7177,25 +7177,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K38" t="n">
-        <v>437.0247332457074</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L38" t="n">
-        <v>437.0247332457074</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M38" t="n">
-        <v>437.0247332457074</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N38" t="n">
-        <v>437.0247332457074</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O38" t="n">
-        <v>857.0776321906106</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P38" t="n">
-        <v>1277.130531135514</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q38" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R38" t="n">
         <v>1697.183430080417</v>
@@ -7207,19 +7207,19 @@
         <v>1393.464329137293</v>
       </c>
       <c r="U38" t="n">
-        <v>1134.24202645431</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V38" t="n">
-        <v>771.6250763881362</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="W38" t="n">
-        <v>771.6250763881362</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="X38" t="n">
-        <v>771.6250763881362</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="Y38" t="n">
-        <v>771.6250763881362</v>
+        <v>1319.688691389803</v>
       </c>
     </row>
     <row r="39">
@@ -7244,7 +7244,7 @@
         <v>161.064410519212</v>
       </c>
       <c r="G39" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H39" t="n">
         <v>33.94366860160834</v>
@@ -7253,25 +7253,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J39" t="n">
-        <v>33.94366860160834</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="K39" t="n">
-        <v>33.94366860160834</v>
+        <v>778.554892512724</v>
       </c>
       <c r="L39" t="n">
-        <v>33.94366860160834</v>
+        <v>1198.607791457627</v>
       </c>
       <c r="M39" t="n">
-        <v>33.94366860160834</v>
+        <v>1198.607791457627</v>
       </c>
       <c r="N39" t="n">
-        <v>319.8519551513677</v>
+        <v>1198.607791457627</v>
       </c>
       <c r="O39" t="n">
-        <v>739.9048540962709</v>
+        <v>1198.607791457627</v>
       </c>
       <c r="P39" t="n">
-        <v>1159.957753041174</v>
+        <v>1198.607791457627</v>
       </c>
       <c r="Q39" t="n">
         <v>1580.010651986078</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>688.7058834404251</v>
+        <v>791.8706668136845</v>
       </c>
       <c r="C40" t="n">
-        <v>516.14417192365</v>
+        <v>619.3089552969094</v>
       </c>
       <c r="D40" t="n">
-        <v>516.14417192365</v>
+        <v>453.4309624984321</v>
       </c>
       <c r="E40" t="n">
-        <v>516.14417192365</v>
+        <v>283.6729587491694</v>
       </c>
       <c r="F40" t="n">
-        <v>339.4371178854062</v>
+        <v>106.9659047109256</v>
       </c>
       <c r="G40" t="n">
-        <v>173.8458429112338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H40" t="n">
         <v>33.94366860160834</v>
@@ -7341,7 +7341,7 @@
         <v>33.94366860160834</v>
       </c>
       <c r="M40" t="n">
-        <v>453.9965675465116</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N40" t="n">
         <v>761.8145120199619</v>
@@ -7359,25 +7359,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S40" t="n">
-        <v>1675.765608785789</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T40" t="n">
-        <v>1631.768928258786</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U40" t="n">
-        <v>1353.335927511891</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="V40" t="n">
-        <v>1353.335927511891</v>
+        <v>983.6892855326716</v>
       </c>
       <c r="W40" t="n">
-        <v>1353.335927511891</v>
+        <v>983.6892855326716</v>
       </c>
       <c r="X40" t="n">
-        <v>1107.944172845304</v>
+        <v>983.6892855326716</v>
       </c>
       <c r="Y40" t="n">
-        <v>880.5245021594121</v>
+        <v>983.6892855326716</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1697.183430080417</v>
+        <v>187.6636389028704</v>
       </c>
       <c r="C41" t="n">
-        <v>1268.601755817686</v>
+        <v>187.6636389028704</v>
       </c>
       <c r="D41" t="n">
-        <v>840.020081554954</v>
+        <v>187.6636389028704</v>
       </c>
       <c r="E41" t="n">
-        <v>411.4384072922223</v>
+        <v>187.6636389028704</v>
       </c>
       <c r="F41" t="n">
         <v>33.94366860160834</v>
@@ -7420,19 +7420,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="M41" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N41" t="n">
-        <v>874.0494664914149</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O41" t="n">
-        <v>1294.102365436318</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P41" t="n">
-        <v>1697.183430080417</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q41" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R41" t="n">
         <v>1697.183430080417</v>
@@ -7444,19 +7444,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U41" t="n">
-        <v>1697.183430080417</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V41" t="n">
-        <v>1697.183430080417</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="W41" t="n">
-        <v>1697.183430080417</v>
+        <v>1033.105672808467</v>
       </c>
       <c r="X41" t="n">
-        <v>1697.183430080417</v>
+        <v>613.9632093877782</v>
       </c>
       <c r="Y41" t="n">
-        <v>1697.183430080417</v>
+        <v>613.9632093877782</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J42" t="n">
-        <v>33.94366860160834</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="K42" t="n">
-        <v>33.94366860160834</v>
+        <v>778.554892512724</v>
       </c>
       <c r="L42" t="n">
-        <v>33.94366860160834</v>
+        <v>1198.607791457627</v>
       </c>
       <c r="M42" t="n">
-        <v>33.94366860160834</v>
+        <v>1198.607791457627</v>
       </c>
       <c r="N42" t="n">
-        <v>319.8519551513677</v>
+        <v>1198.607791457627</v>
       </c>
       <c r="O42" t="n">
-        <v>739.9048540962709</v>
+        <v>1198.607791457627</v>
       </c>
       <c r="P42" t="n">
-        <v>1159.957753041174</v>
+        <v>1198.607791457627</v>
       </c>
       <c r="Q42" t="n">
         <v>1580.010651986078</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>339.4371178854062</v>
+        <v>478.3006101632084</v>
       </c>
       <c r="C43" t="n">
-        <v>339.4371178854062</v>
+        <v>478.3006101632084</v>
       </c>
       <c r="D43" t="n">
-        <v>339.4371178854062</v>
+        <v>312.4226173647311</v>
       </c>
       <c r="E43" t="n">
-        <v>339.4371178854062</v>
+        <v>312.4226173647311</v>
       </c>
       <c r="F43" t="n">
-        <v>339.4371178854062</v>
+        <v>135.7155633264873</v>
       </c>
       <c r="G43" t="n">
-        <v>173.8458429112338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H43" t="n">
         <v>33.94366860160834</v>
@@ -7596,25 +7596,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S43" t="n">
-        <v>1516.524240083786</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T43" t="n">
-        <v>1270.644793662241</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U43" t="n">
-        <v>992.2117929153466</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="V43" t="n">
-        <v>705.2562847857771</v>
+        <v>1142.930654234675</v>
       </c>
       <c r="W43" t="n">
-        <v>433.2298803720686</v>
+        <v>1142.930654234675</v>
       </c>
       <c r="X43" t="n">
-        <v>339.4371178854062</v>
+        <v>897.5388995680873</v>
       </c>
       <c r="Y43" t="n">
-        <v>339.4371178854062</v>
+        <v>670.1192288821956</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1187.231985779346</v>
+        <v>1068.830079253109</v>
       </c>
       <c r="C44" t="n">
-        <v>1187.231985779346</v>
+        <v>640.2484049903778</v>
       </c>
       <c r="D44" t="n">
-        <v>1152.33908412592</v>
+        <v>640.2484049903778</v>
       </c>
       <c r="E44" t="n">
-        <v>1152.33908412592</v>
+        <v>640.2484049903778</v>
       </c>
       <c r="F44" t="n">
-        <v>724.4716545351282</v>
+        <v>640.2484049903778</v>
       </c>
       <c r="G44" t="n">
         <v>323.0738231583921</v>
@@ -7657,16 +7657,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="M44" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="N44" t="n">
         <v>267.8706684926505</v>
       </c>
-      <c r="N44" t="n">
+      <c r="O44" t="n">
         <v>687.9235674375537</v>
       </c>
-      <c r="O44" t="n">
+      <c r="P44" t="n">
         <v>1107.976466382457</v>
-      </c>
-      <c r="P44" t="n">
-        <v>1528.02936532736</v>
       </c>
       <c r="Q44" t="n">
         <v>1528.02936532736</v>
@@ -7675,25 +7675,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S44" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T44" t="n">
-        <v>1613.531556264254</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U44" t="n">
-        <v>1613.531556264254</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V44" t="n">
-        <v>1613.531556264254</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="W44" t="n">
-        <v>1613.531556264254</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="X44" t="n">
-        <v>1613.531556264254</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="Y44" t="n">
-        <v>1613.531556264254</v>
+        <v>1068.830079253109</v>
       </c>
     </row>
     <row r="45">
@@ -7706,7 +7706,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C45" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D45" t="n">
         <v>338.5686635760967</v>
@@ -7715,10 +7715,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F45" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G45" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H45" t="n">
         <v>33.94366860160834</v>
@@ -7727,19 +7727,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J45" t="n">
-        <v>33.94366860160834</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="K45" t="n">
-        <v>33.94366860160834</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="L45" t="n">
-        <v>33.94366860160834</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="M45" t="n">
-        <v>33.94366860160834</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="N45" t="n">
-        <v>453.9965675465116</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="O45" t="n">
         <v>739.9048540962709</v>
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>726.6741060804052</v>
+        <v>718.8484307043673</v>
       </c>
       <c r="C46" t="n">
-        <v>554.1123945636301</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="D46" t="n">
-        <v>388.2344017651528</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E46" t="n">
-        <v>218.4763980158901</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F46" t="n">
-        <v>41.76934397764629</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G46" t="n">
-        <v>41.76934397764629</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H46" t="n">
-        <v>41.76934397764629</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I46" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J46" t="n">
-        <v>33.94366860160834</v>
+        <v>67.00315850392299</v>
       </c>
       <c r="K46" t="n">
-        <v>33.94366860160834</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="L46" t="n">
-        <v>33.94366860160834</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="M46" t="n">
         <v>341.7616130750586</v>
@@ -7830,28 +7830,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R46" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S46" t="n">
-        <v>1537.942061378414</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T46" t="n">
-        <v>1292.062614956869</v>
+        <v>1511.656610266723</v>
       </c>
       <c r="U46" t="n">
-        <v>1013.629614209975</v>
+        <v>1233.223609519829</v>
       </c>
       <c r="V46" t="n">
-        <v>726.6741060804052</v>
+        <v>946.2681013902591</v>
       </c>
       <c r="W46" t="n">
-        <v>726.6741060804052</v>
+        <v>946.2681013902591</v>
       </c>
       <c r="X46" t="n">
-        <v>726.6741060804052</v>
+        <v>946.2681013902591</v>
       </c>
       <c r="Y46" t="n">
-        <v>726.6741060804052</v>
+        <v>718.8484307043673</v>
       </c>
     </row>
   </sheetData>
@@ -8224,19 +8224,19 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="O5" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="P5" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8373,19 +8373,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>33.39342414375217</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="N7" t="n">
-        <v>310.9272166398487</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8464,13 +8464,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O8" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q8" t="n">
         <v>424.2958575201044</v>
@@ -8619,10 +8619,10 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
+        <v>310.9272166398487</v>
+      </c>
+      <c r="N10" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="N10" t="n">
-        <v>310.9272166398487</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -9005,7 +9005,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9017,10 +9017,10 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>424.2958575201043</v>
+        <v>385.2554146752023</v>
       </c>
       <c r="P15" t="n">
         <v>424.2958575201044</v>
@@ -9087,16 +9087,16 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>310.9272166398487</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="N16" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>423.9083325512944</v>
@@ -9175,10 +9175,10 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O17" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="O17" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="P17" t="n">
         <v>424.2958575201044</v>
@@ -9242,7 +9242,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9254,10 +9254,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>288.7962490401609</v>
+        <v>385.2554146752023</v>
       </c>
       <c r="P18" t="n">
         <v>424.2958575201044</v>
@@ -9324,7 +9324,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080415</v>
@@ -9333,7 +9333,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>312.7888501519116</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512944</v>
@@ -9412,10 +9412,10 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O20" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="O20" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="P20" t="n">
         <v>424.2958575201044</v>
@@ -9479,25 +9479,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>385.2554146752024</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>424.2958575201044</v>
@@ -9558,19 +9558,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="M22" t="n">
-        <v>310.9272166398487</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>423.9083325512944</v>
@@ -9649,7 +9649,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O23" t="n">
         <v>424.2958575201043</v>
@@ -9658,7 +9658,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="Q23" t="n">
-        <v>424.2958575201044</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9716,10 +9716,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9728,13 +9728,13 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>424.2958575201044</v>
+        <v>385.2554146752024</v>
       </c>
       <c r="Q24" t="n">
         <v>424.2958575201044</v>
@@ -9798,16 +9798,16 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>35.25505765581499</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512944</v>
@@ -9883,22 +9883,22 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O26" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="O26" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="P26" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,25 +9953,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>385.2554146752024</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.796249040161</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>424.2958575201044</v>
@@ -10035,16 +10035,16 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="N28" t="n">
-        <v>35.25505765581499</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512944</v>
@@ -10120,22 +10120,22 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P29" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q29" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,28 +10190,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M30" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>424.2958575201044</v>
+        <v>385.2554146752025</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -10272,22 +10272,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
+        <v>310.9272166398487</v>
+      </c>
+      <c r="N31" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="N31" t="n">
-        <v>384.4104887602591</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
         <v>169.8916917821538</v>
@@ -10348,25 +10348,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O32" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
       <c r="P32" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q32" t="n">
         <v>424.2958575201044</v>
@@ -10430,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10439,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>424.2958575201043</v>
@@ -10506,25 +10506,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P34" t="n">
-        <v>237.6484237362511</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
         <v>169.8916917821538</v>
@@ -10594,10 +10594,10 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>424.2958575201043</v>
@@ -10664,28 +10664,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>385.2554146752024</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>288.796249040161</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10743,22 +10743,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>33.39342414375217</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
@@ -10825,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10834,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O38" t="n">
         <v>424.2958575201043</v>
@@ -10846,7 +10846,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,28 +10901,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>424.2958575201044</v>
+        <v>385.2554146752025</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -10989,10 +10989,10 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
+        <v>310.9272166398487</v>
+      </c>
+      <c r="N40" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="N40" t="n">
-        <v>310.9272166398487</v>
       </c>
       <c r="O40" t="n">
         <v>423.9083325512944</v>
@@ -11068,22 +11068,22 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O41" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="N41" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="O41" t="n">
+      <c r="P41" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P41" t="n">
-        <v>407.1525905495951</v>
-      </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,28 +11138,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>424.2958575201044</v>
+        <v>385.2554146752025</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11305,19 +11305,19 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="N44" t="n">
+      <c r="O44" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="O44" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="P44" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11375,10 +11375,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>385.2554146752023</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11387,10 +11387,10 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>424.2958575201044</v>
@@ -11454,16 +11454,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>33.39342414375217</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>310.9272166398487</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>424.2958575201043</v>
@@ -22549,13 +22549,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>301.347838353616</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
@@ -22597,13 +22597,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22612,7 +22612,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>376.7330705712591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -22710,7 +22710,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -22722,10 +22722,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>59.2876045405941</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,10 +22752,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22773,7 +22773,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>72.78996144619879</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
@@ -22801,10 +22801,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>116.6353915753823</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,19 +22834,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>78.20576728694169</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22941,28 +22941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>89.46573903455371</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>58.42904050020375</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22992,13 +22992,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -23010,7 +23010,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23023,10 +23023,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D8" t="n">
-        <v>7.254829457195569</v>
+        <v>357.8057033820652</v>
       </c>
       <c r="E8" t="n">
         <v>5.14113987318342</v>
@@ -23071,10 +23071,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -23086,7 +23086,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>40.52414525755449</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -23181,25 +23181,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>14.08856719113841</v>
       </c>
       <c r="I10" t="n">
-        <v>52.71734668508481</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23238,16 +23238,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23260,16 +23260,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D11" t="n">
         <v>7.254829457195569</v>
       </c>
       <c r="E11" t="n">
-        <v>45.66528513073808</v>
+        <v>329.8575638691421</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -23421,22 +23421,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>83.83779588133126</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>90.19770317961022</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23497,7 +23497,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -23548,7 +23548,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -23557,13 +23557,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>17.03518778052705</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>247.6429237901069</v>
       </c>
     </row>
     <row r="15">
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>83.83779588133098</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23703,16 +23703,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>203.6719779723166</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23743,7 +23743,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>377.1630480262595</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
@@ -23791,10 +23791,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>354.381192774452</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23940,22 +23940,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>86.5975658583472</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>260.815514998542</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>48.02230273026214</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>7.254829457195569</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
@@ -23989,7 +23989,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24034,10 +24034,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>21.13865242601344</v>
       </c>
     </row>
     <row r="21">
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>25.69521738233223</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>20.09044341466983</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>9.465190568306582</v>
       </c>
       <c r="D23" t="n">
-        <v>46.2267941999246</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>397.3838530629687</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6300796561533</v>
+        <v>182.8850960609186</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -24271,7 +24271,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>155.3844304619683</v>
+        <v>134.4800862973936</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24445,22 +24445,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D26" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>45.66528513073808</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0.4126214791313976</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>381.0370168657346</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>91.16053363879887</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>14.56796726996959</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -24682,22 +24682,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>290.3869368434605</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>76.22495772671317</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
         <v>0.4126214791313976</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>66.69364622360227</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>197.2892468553713</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24919,16 +24919,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>30.30936224823137</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>49.86896399117649</v>
       </c>
       <c r="G32" t="n">
         <v>397.3838530629687</v>
@@ -24937,7 +24937,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24982,10 +24982,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25083,13 +25083,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>129.0161272123185</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>91.64334847620657</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -25153,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>59.33415455948301</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D35" t="n">
-        <v>7.254829457195569</v>
+        <v>253.3455727324769</v>
       </c>
       <c r="E35" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>397.3838530629687</v>
@@ -25207,7 +25207,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>256.6300796561533</v>
@@ -25222,7 +25222,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25314,22 +25314,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>76.99711004439305</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25365,19 +25365,19 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>7.471685660023525</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25393,22 +25393,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F38" t="n">
-        <v>376.9068676604064</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -25447,10 +25447,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
@@ -25459,7 +25459,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>331.1653810933284</v>
       </c>
     </row>
     <row r="39">
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>91.64334847620657</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25599,25 +25599,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>199.8639382355963</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>49.86896399117649</v>
+        <v>271.4059846966349</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
@@ -25684,16 +25684,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>63.18118644680047</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25836,25 +25836,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>150.0830022581258</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D44" t="n">
-        <v>397.0067143404082</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>83.3810170493029</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -25933,7 +25933,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26043,7 +26043,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>80.02593111079385</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>238.6016984384373</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>366617.1295643243</v>
+        <v>366617.1295643242</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>366617.1295643241</v>
+        <v>366617.1295643243</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>366617.1295643243</v>
+        <v>366617.1295643242</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>366617.1295643243</v>
+        <v>366617.1295643242</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>366617.1295643242</v>
+        <v>366617.1295643241</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>366617.1295643243</v>
+        <v>366617.1295643242</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>366617.1295643243</v>
+        <v>366617.1295643241</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>366617.1295643243</v>
+        <v>366617.1295643241</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>366617.1295643242</v>
+        <v>366617.1295643243</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>366617.1295643243</v>
+        <v>366617.1295643241</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>366617.1295643242</v>
+        <v>366617.1295643243</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>366617.1295643241</v>
+        <v>366617.1295643243</v>
       </c>
     </row>
   </sheetData>
@@ -26349,7 +26349,7 @@
         <v>54091.05190293308</v>
       </c>
       <c r="N2" t="n">
-        <v>54091.05190293307</v>
+        <v>54091.05190293308</v>
       </c>
       <c r="O2" t="n">
         <v>54091.05190293308</v>
@@ -26420,7 +26420,7 @@
         <v>367.9287957210698</v>
       </c>
       <c r="C4" t="n">
-        <v>367.9287957210699</v>
+        <v>367.9287957210698</v>
       </c>
       <c r="D4" t="n">
         <v>367.9287957210698</v>
@@ -26456,10 +26456,10 @@
         <v>367.9287957210698</v>
       </c>
       <c r="O4" t="n">
-        <v>367.9287957210699</v>
+        <v>367.9287957210698</v>
       </c>
       <c r="P4" t="n">
-        <v>367.9287957210699</v>
+        <v>367.9287957210698</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-147892.9656897203</v>
+        <v>-148632.3223016359</v>
       </c>
       <c r="C6" t="n">
-        <v>-5701.665030010336</v>
+        <v>-6441.021641925982</v>
       </c>
       <c r="D6" t="n">
-        <v>-5701.665030010328</v>
+        <v>-6441.021641925981</v>
       </c>
       <c r="E6" t="n">
-        <v>27925.93496998966</v>
+        <v>27186.57835807401</v>
       </c>
       <c r="F6" t="n">
-        <v>27925.93496998967</v>
+        <v>27186.57835807402</v>
       </c>
       <c r="G6" t="n">
-        <v>27925.93496998966</v>
+        <v>27186.57835807402</v>
       </c>
       <c r="H6" t="n">
-        <v>27925.93496998966</v>
+        <v>27186.57835807401</v>
       </c>
       <c r="I6" t="n">
-        <v>27925.93496998967</v>
+        <v>27186.57835807402</v>
       </c>
       <c r="J6" t="n">
-        <v>-83088.53037500053</v>
+        <v>-83827.88698691619</v>
       </c>
       <c r="K6" t="n">
-        <v>27925.93496998966</v>
+        <v>27186.57835807401</v>
       </c>
       <c r="L6" t="n">
-        <v>27925.93496998966</v>
+        <v>27186.57835807401</v>
       </c>
       <c r="M6" t="n">
-        <v>27925.93496998967</v>
+        <v>27186.57835807401</v>
       </c>
       <c r="N6" t="n">
-        <v>27925.93496998966</v>
+        <v>27186.57835807401</v>
       </c>
       <c r="O6" t="n">
-        <v>27925.93496998966</v>
+        <v>27186.57835807402</v>
       </c>
       <c r="P6" t="n">
-        <v>27925.93496998966</v>
+        <v>27186.57835807401</v>
       </c>
     </row>
   </sheetData>
@@ -34944,19 +34944,19 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="O5" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="P5" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35093,19 +35093,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>33.39342414375217</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="N7" t="n">
-        <v>310.9272166398487</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -35184,13 +35184,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O8" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q8" t="n">
         <v>424.2958575201044</v>
@@ -35339,10 +35339,10 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
+        <v>310.9272166398487</v>
+      </c>
+      <c r="N10" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="N10" t="n">
-        <v>310.9272166398487</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35737,10 +35737,10 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>424.2958575201043</v>
+        <v>385.2554146752023</v>
       </c>
       <c r="P15" t="n">
         <v>424.2958575201044</v>
@@ -35807,16 +35807,16 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>310.9272166398487</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="N16" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>423.9083325512944</v>
@@ -35895,10 +35895,10 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O17" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="O17" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="P17" t="n">
         <v>424.2958575201044</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35974,10 +35974,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>288.7962490401609</v>
+        <v>385.2554146752023</v>
       </c>
       <c r="P18" t="n">
         <v>424.2958575201044</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080415</v>
@@ -36053,7 +36053,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>312.7888501519116</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512944</v>
@@ -36132,10 +36132,10 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O20" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="O20" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="P20" t="n">
         <v>424.2958575201044</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>385.2554146752024</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>424.2958575201044</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="M22" t="n">
-        <v>310.9272166398487</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>423.9083325512944</v>
@@ -36369,7 +36369,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O23" t="n">
         <v>424.2958575201043</v>
@@ -36378,7 +36378,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="Q23" t="n">
-        <v>424.2958575201044</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697544</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36448,13 +36448,13 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>424.2958575201044</v>
+        <v>385.2554146752024</v>
       </c>
       <c r="Q24" t="n">
         <v>424.2958575201044</v>
@@ -36518,16 +36518,16 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>35.25505765581499</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512944</v>
@@ -36603,22 +36603,22 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O26" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="O26" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="P26" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>385.2554146752024</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.796249040161</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>424.2958575201044</v>
@@ -36755,16 +36755,16 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="N28" t="n">
-        <v>35.25505765581499</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512944</v>
@@ -36840,22 +36840,22 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P29" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q29" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M30" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>424.2958575201044</v>
+        <v>385.2554146752025</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -36992,22 +36992,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
+        <v>310.9272166398487</v>
+      </c>
+      <c r="N31" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="N31" t="n">
-        <v>384.4104887602591</v>
-      </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
         <v>169.8916917821539</v>
@@ -37068,25 +37068,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O32" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
       <c r="P32" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q32" t="n">
         <v>424.2958575201044</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37159,7 +37159,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>424.2958575201043</v>
@@ -37226,25 +37226,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512945</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P34" t="n">
-        <v>237.6484237362511</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
         <v>169.8916917821539</v>
@@ -37314,10 +37314,10 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>424.2958575201043</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>385.2554146752024</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>288.796249040161</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>33.39342414375217</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
@@ -37545,7 +37545,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -37554,7 +37554,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O38" t="n">
         <v>424.2958575201043</v>
@@ -37566,7 +37566,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>424.2958575201044</v>
+        <v>385.2554146752025</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37709,10 +37709,10 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
+        <v>310.9272166398487</v>
+      </c>
+      <c r="N40" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="N40" t="n">
-        <v>310.9272166398487</v>
       </c>
       <c r="O40" t="n">
         <v>423.9083325512944</v>
@@ -37788,22 +37788,22 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O41" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="N41" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="O41" t="n">
+      <c r="P41" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P41" t="n">
-        <v>407.1525905495951</v>
-      </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>424.2958575201044</v>
+        <v>385.2554146752025</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -38025,19 +38025,19 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="N44" t="n">
+      <c r="O44" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="O44" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="P44" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697544</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>385.2554146752023</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38107,10 +38107,10 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>424.2958575201044</v>
@@ -38174,16 +38174,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>33.39342414375217</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>310.9272166398487</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>424.2958575201043</v>
